--- a/GakuConverter/GakuStats.xlsx
+++ b/GakuConverter/GakuStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chun\gakumas-tierlist\GakuConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4BC910-4581-4770-8970-A18550C882EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B75F70E-DEF1-471F-BFFD-F32926E6B540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{6509477F-BBC8-40DD-A1E6-76B0F6EEA054}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4851" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4941" uniqueCount="704">
   <si>
     <t>type</t>
   </si>
@@ -2395,6 +2395,27 @@
   </si>
   <si>
     <t>Dance lesson / Dance turn only\nAt the start of the turn, if Stamina  is below 50%, recover 15% of your maximum Stamina\nTwice per lesson</t>
+  </si>
+  <si>
+    <t>Girls Talk</t>
+  </si>
+  <si>
+    <t>Signature - Gyaru make-up!</t>
+  </si>
+  <si>
+    <t>When Dance is 700+, if you enhance a skill card with a Good Condition effect, enhance a random skill card\nTwice per produce</t>
+  </si>
+  <si>
+    <t>This is where it all begins!</t>
+  </si>
+  <si>
+    <t>When a skill card is deleted, gain +11 Dance</t>
+  </si>
+  <si>
+    <t>Signature - The starting line to a dream</t>
+  </si>
+  <si>
+    <t>Dance lesson / Dance turn only\nAt the start of the turn, if Good Condition is 3+, gain +3 Good Condition\nCost: 1 Stamina (Red)\nTwice per lesson</t>
   </si>
 </sst>
 </file>
@@ -9710,11 +9731,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D5332D-C0D6-4331-A5CD-43684D01253E}">
-  <dimension ref="A1:AP211"/>
+  <dimension ref="A1:AP216"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO2" sqref="AO2:AO211"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP226" sqref="AP226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20609,7 +20630,7 @@
     </row>
     <row r="192" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f t="shared" ref="A192:A211" si="7">A187+1</f>
+        <f t="shared" ref="A192:A216" si="7">A187+1</f>
         <v>20039</v>
       </c>
       <c r="B192">
@@ -21750,6 +21771,296 @@
       </c>
       <c r="AP211" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="212" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" si="7"/>
+        <v>20043</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212">
+        <f t="shared" ref="E212:E216" si="9">E207</f>
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>33</v>
+      </c>
+      <c r="K212">
+        <v>7</v>
+      </c>
+      <c r="O212">
+        <v>5</v>
+      </c>
+      <c r="T212">
+        <v>4</v>
+      </c>
+      <c r="AH212" t="s">
+        <v>697</v>
+      </c>
+      <c r="AI212" t="s">
+        <v>397</v>
+      </c>
+      <c r="AJ212" t="s">
+        <v>452</v>
+      </c>
+      <c r="AK212" t="s">
+        <v>392</v>
+      </c>
+      <c r="AL212" t="s">
+        <v>485</v>
+      </c>
+      <c r="AM212" t="s">
+        <v>698</v>
+      </c>
+      <c r="AN212" t="s">
+        <v>380</v>
+      </c>
+      <c r="AO212" t="s">
+        <v>693</v>
+      </c>
+      <c r="AP212" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="213" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f t="shared" si="7"/>
+        <v>20043</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>36</v>
+      </c>
+      <c r="K213">
+        <v>7</v>
+      </c>
+      <c r="O213">
+        <v>10</v>
+      </c>
+      <c r="T213">
+        <v>4</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>697</v>
+      </c>
+      <c r="AI213" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ213" t="s">
+        <v>453</v>
+      </c>
+      <c r="AK213" t="s">
+        <v>392</v>
+      </c>
+      <c r="AL213" t="s">
+        <v>485</v>
+      </c>
+      <c r="AM213" t="s">
+        <v>698</v>
+      </c>
+      <c r="AN213" t="s">
+        <v>380</v>
+      </c>
+      <c r="AO213" t="s">
+        <v>693</v>
+      </c>
+      <c r="AP213" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="214" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" si="7"/>
+        <v>20043</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G214">
+        <v>39</v>
+      </c>
+      <c r="K214">
+        <v>7</v>
+      </c>
+      <c r="O214">
+        <v>10</v>
+      </c>
+      <c r="T214">
+        <v>4</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>697</v>
+      </c>
+      <c r="AI214" t="s">
+        <v>400</v>
+      </c>
+      <c r="AJ214" t="s">
+        <v>453</v>
+      </c>
+      <c r="AK214" t="s">
+        <v>392</v>
+      </c>
+      <c r="AL214" t="s">
+        <v>485</v>
+      </c>
+      <c r="AM214" t="s">
+        <v>698</v>
+      </c>
+      <c r="AN214" t="s">
+        <v>383</v>
+      </c>
+      <c r="AO214" t="s">
+        <v>693</v>
+      </c>
+      <c r="AP214" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="215" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f t="shared" si="7"/>
+        <v>20043</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="G215">
+        <v>42</v>
+      </c>
+      <c r="K215">
+        <v>7</v>
+      </c>
+      <c r="O215">
+        <v>10</v>
+      </c>
+      <c r="T215">
+        <v>6</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>697</v>
+      </c>
+      <c r="AI215" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ215" t="s">
+        <v>453</v>
+      </c>
+      <c r="AK215" t="s">
+        <v>392</v>
+      </c>
+      <c r="AL215" t="s">
+        <v>486</v>
+      </c>
+      <c r="AM215" t="s">
+        <v>698</v>
+      </c>
+      <c r="AN215" t="s">
+        <v>383</v>
+      </c>
+      <c r="AO215" t="s">
+        <v>693</v>
+      </c>
+      <c r="AP215" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="216" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f t="shared" si="7"/>
+        <v>20043</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G216">
+        <v>45</v>
+      </c>
+      <c r="K216">
+        <v>13</v>
+      </c>
+      <c r="O216">
+        <v>10</v>
+      </c>
+      <c r="T216">
+        <v>6</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>697</v>
+      </c>
+      <c r="AI216" t="s">
+        <v>403</v>
+      </c>
+      <c r="AJ216" t="s">
+        <v>453</v>
+      </c>
+      <c r="AK216" t="s">
+        <v>395</v>
+      </c>
+      <c r="AL216" t="s">
+        <v>486</v>
+      </c>
+      <c r="AM216" t="s">
+        <v>698</v>
+      </c>
+      <c r="AN216" t="s">
+        <v>388</v>
+      </c>
+      <c r="AO216" t="s">
+        <v>693</v>
+      </c>
+      <c r="AP216" t="s">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -21760,11 +22071,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE975E6E-17B1-40AE-80BD-D23A6587DC30}">
-  <dimension ref="A1:AQ256"/>
+  <dimension ref="A1:AQ261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V259" sqref="V259"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP266" sqref="AP266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35303,7 +35614,7 @@
     </row>
     <row r="238" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A238">
-        <f t="shared" ref="A238:A256" si="8">A233+1</f>
+        <f t="shared" ref="A238:A261" si="8">A233+1</f>
         <v>30048</v>
       </c>
       <c r="B238">
@@ -35316,7 +35627,7 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <f t="shared" ref="E238:E256" si="9">E233</f>
+        <f t="shared" ref="E238:E261" si="9">E233</f>
         <v>1</v>
       </c>
       <c r="F238">
@@ -36401,6 +36712,296 @@
       </c>
       <c r="AP256" t="s">
         <v>696</v>
+      </c>
+    </row>
+    <row r="257" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f t="shared" si="8"/>
+        <v>30052</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>3</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K257">
+        <v>13</v>
+      </c>
+      <c r="Q257">
+        <v>5</v>
+      </c>
+      <c r="AE257">
+        <v>8</v>
+      </c>
+      <c r="AH257" t="s">
+        <v>700</v>
+      </c>
+      <c r="AI257" t="s">
+        <v>516</v>
+      </c>
+      <c r="AJ257" t="s">
+        <v>458</v>
+      </c>
+      <c r="AK257" t="s">
+        <v>395</v>
+      </c>
+      <c r="AL257" t="s">
+        <v>402</v>
+      </c>
+      <c r="AM257" t="s">
+        <v>702</v>
+      </c>
+      <c r="AN257" t="s">
+        <v>388</v>
+      </c>
+      <c r="AO257" t="s">
+        <v>505</v>
+      </c>
+      <c r="AP257" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="258" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f t="shared" si="8"/>
+        <v>30052</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>3</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K258">
+        <v>13</v>
+      </c>
+      <c r="Q258">
+        <v>5</v>
+      </c>
+      <c r="AE258">
+        <v>8</v>
+      </c>
+      <c r="AH258" t="s">
+        <v>700</v>
+      </c>
+      <c r="AI258" t="s">
+        <v>517</v>
+      </c>
+      <c r="AJ258" t="s">
+        <v>458</v>
+      </c>
+      <c r="AK258" t="s">
+        <v>395</v>
+      </c>
+      <c r="AL258" t="s">
+        <v>402</v>
+      </c>
+      <c r="AM258" t="s">
+        <v>702</v>
+      </c>
+      <c r="AN258" t="s">
+        <v>527</v>
+      </c>
+      <c r="AO258" t="s">
+        <v>505</v>
+      </c>
+      <c r="AP258" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="259" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f t="shared" si="8"/>
+        <v>30052</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>3</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I259">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K259">
+        <v>13</v>
+      </c>
+      <c r="Q259">
+        <v>5</v>
+      </c>
+      <c r="AE259">
+        <v>11</v>
+      </c>
+      <c r="AH259" t="s">
+        <v>700</v>
+      </c>
+      <c r="AI259" t="s">
+        <v>518</v>
+      </c>
+      <c r="AJ259" t="s">
+        <v>701</v>
+      </c>
+      <c r="AK259" t="s">
+        <v>395</v>
+      </c>
+      <c r="AL259" t="s">
+        <v>402</v>
+      </c>
+      <c r="AM259" t="s">
+        <v>702</v>
+      </c>
+      <c r="AN259" t="s">
+        <v>527</v>
+      </c>
+      <c r="AO259" t="s">
+        <v>505</v>
+      </c>
+      <c r="AP259" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="260" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <f t="shared" si="8"/>
+        <v>30052</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>3</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I260">
+        <v>0.08</v>
+      </c>
+      <c r="K260">
+        <v>17</v>
+      </c>
+      <c r="Q260">
+        <v>5</v>
+      </c>
+      <c r="AE260">
+        <v>11</v>
+      </c>
+      <c r="AH260" t="s">
+        <v>700</v>
+      </c>
+      <c r="AI260" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ260" t="s">
+        <v>701</v>
+      </c>
+      <c r="AK260" t="s">
+        <v>554</v>
+      </c>
+      <c r="AL260" t="s">
+        <v>402</v>
+      </c>
+      <c r="AM260" t="s">
+        <v>702</v>
+      </c>
+      <c r="AN260" t="s">
+        <v>527</v>
+      </c>
+      <c r="AO260" t="s">
+        <v>505</v>
+      </c>
+      <c r="AP260" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="261" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f t="shared" si="8"/>
+        <v>30052</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>3</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I261">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K261">
+        <v>17</v>
+      </c>
+      <c r="Q261">
+        <v>7</v>
+      </c>
+      <c r="AE261">
+        <v>11</v>
+      </c>
+      <c r="AH261" t="s">
+        <v>700</v>
+      </c>
+      <c r="AI261" t="s">
+        <v>520</v>
+      </c>
+      <c r="AJ261" t="s">
+        <v>701</v>
+      </c>
+      <c r="AK261" t="s">
+        <v>554</v>
+      </c>
+      <c r="AL261" t="s">
+        <v>641</v>
+      </c>
+      <c r="AM261" t="s">
+        <v>702</v>
+      </c>
+      <c r="AN261" t="s">
+        <v>528</v>
+      </c>
+      <c r="AO261" t="s">
+        <v>505</v>
+      </c>
+      <c r="AP261" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>

--- a/GakuConverter/GakuStats.xlsx
+++ b/GakuConverter/GakuStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chun\gakumas-tierlist\GakuConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B75F70E-DEF1-471F-BFFD-F32926E6B540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A5C6C5-E898-4343-9B1D-DDA1C8C39BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{6509477F-BBC8-40DD-A1E6-76B0F6EEA054}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6509477F-BBC8-40DD-A1E6-76B0F6EEA054}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="1" r:id="rId1"/>
@@ -2385,9 +2385,6 @@
     <t>Signature - The Seriousness of Strength</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Can you stand on your own?</t>
   </si>
   <si>
@@ -2416,6 +2413,9 @@
   </si>
   <si>
     <t>Dance lesson / Dance turn only\nAt the start of the turn, if Good Condition is 3+, gain +3 Good Condition\nCost: 1 Stamina (Red)\nTwice per lesson</t>
+  </si>
+  <si>
+    <t>No Event</t>
   </si>
 </sst>
 </file>
@@ -2811,7 +2811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101E7E87-7AB1-4408-A6FA-76582E3A437E}">
   <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView topLeftCell="AG8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AG8" workbookViewId="0">
       <selection activeCell="AO2" sqref="AO2:AO61"/>
     </sheetView>
   </sheetViews>
@@ -3057,7 +3057,7 @@
         <v>194</v>
       </c>
       <c r="AO2" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP2" t="s">
         <v>111</v>
@@ -3167,7 +3167,7 @@
         <v>194</v>
       </c>
       <c r="AO3" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP3" t="s">
         <v>111</v>
@@ -3277,7 +3277,7 @@
         <v>194</v>
       </c>
       <c r="AO4" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP4" t="s">
         <v>111</v>
@@ -3387,7 +3387,7 @@
         <v>194</v>
       </c>
       <c r="AO5" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP5" t="s">
         <v>111</v>
@@ -3497,7 +3497,7 @@
         <v>194</v>
       </c>
       <c r="AO6" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP6" t="s">
         <v>111</v>
@@ -3611,7 +3611,7 @@
         <v>194</v>
       </c>
       <c r="AO7" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP7" t="s">
         <v>111</v>
@@ -3725,7 +3725,7 @@
         <v>194</v>
       </c>
       <c r="AO8" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP8" t="s">
         <v>111</v>
@@ -3839,7 +3839,7 @@
         <v>194</v>
       </c>
       <c r="AO9" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP9" t="s">
         <v>111</v>
@@ -3953,7 +3953,7 @@
         <v>194</v>
       </c>
       <c r="AO10" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP10" t="s">
         <v>111</v>
@@ -4067,7 +4067,7 @@
         <v>194</v>
       </c>
       <c r="AO11" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP11" t="s">
         <v>111</v>
@@ -4181,7 +4181,7 @@
         <v>194</v>
       </c>
       <c r="AO12" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP12" t="s">
         <v>111</v>
@@ -4295,7 +4295,7 @@
         <v>194</v>
       </c>
       <c r="AO13" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP13" t="s">
         <v>111</v>
@@ -4409,7 +4409,7 @@
         <v>194</v>
       </c>
       <c r="AO14" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP14" t="s">
         <v>111</v>
@@ -4523,7 +4523,7 @@
         <v>194</v>
       </c>
       <c r="AO15" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP15" t="s">
         <v>111</v>
@@ -4637,7 +4637,7 @@
         <v>194</v>
       </c>
       <c r="AO16" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP16" t="s">
         <v>111</v>
@@ -4750,7 +4750,7 @@
         <v>194</v>
       </c>
       <c r="AO17" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP17" t="s">
         <v>111</v>
@@ -4863,7 +4863,7 @@
         <v>194</v>
       </c>
       <c r="AO18" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP18" t="s">
         <v>111</v>
@@ -4976,7 +4976,7 @@
         <v>194</v>
       </c>
       <c r="AO19" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP19" t="s">
         <v>111</v>
@@ -5089,7 +5089,7 @@
         <v>194</v>
       </c>
       <c r="AO20" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP20" t="s">
         <v>111</v>
@@ -5202,7 +5202,7 @@
         <v>194</v>
       </c>
       <c r="AO21" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP21" t="s">
         <v>111</v>
@@ -5315,7 +5315,7 @@
         <v>194</v>
       </c>
       <c r="AO22" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP22" t="s">
         <v>111</v>
@@ -5428,7 +5428,7 @@
         <v>194</v>
       </c>
       <c r="AO23" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP23" t="s">
         <v>111</v>
@@ -5541,7 +5541,7 @@
         <v>194</v>
       </c>
       <c r="AO24" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP24" t="s">
         <v>111</v>
@@ -5654,7 +5654,7 @@
         <v>194</v>
       </c>
       <c r="AO25" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP25" t="s">
         <v>111</v>
@@ -5767,7 +5767,7 @@
         <v>194</v>
       </c>
       <c r="AO26" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP26" t="s">
         <v>111</v>
@@ -5880,7 +5880,7 @@
         <v>194</v>
       </c>
       <c r="AO27" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP27" t="s">
         <v>111</v>
@@ -5993,7 +5993,7 @@
         <v>194</v>
       </c>
       <c r="AO28" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP28" t="s">
         <v>111</v>
@@ -6106,7 +6106,7 @@
         <v>194</v>
       </c>
       <c r="AO29" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP29" t="s">
         <v>111</v>
@@ -6219,7 +6219,7 @@
         <v>194</v>
       </c>
       <c r="AO30" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP30" t="s">
         <v>111</v>
@@ -6332,7 +6332,7 @@
         <v>194</v>
       </c>
       <c r="AO31" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP31" t="s">
         <v>111</v>
@@ -6444,7 +6444,7 @@
         <v>194</v>
       </c>
       <c r="AO32" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP32" t="s">
         <v>111</v>
@@ -6556,7 +6556,7 @@
         <v>194</v>
       </c>
       <c r="AO33" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP33" t="s">
         <v>111</v>
@@ -6668,7 +6668,7 @@
         <v>194</v>
       </c>
       <c r="AO34" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP34" t="s">
         <v>111</v>
@@ -6780,7 +6780,7 @@
         <v>194</v>
       </c>
       <c r="AO35" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP35" t="s">
         <v>111</v>
@@ -6892,7 +6892,7 @@
         <v>194</v>
       </c>
       <c r="AO36" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP36" t="s">
         <v>111</v>
@@ -7005,7 +7005,7 @@
         <v>194</v>
       </c>
       <c r="AO37" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP37" t="s">
         <v>111</v>
@@ -7118,7 +7118,7 @@
         <v>194</v>
       </c>
       <c r="AO38" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP38" t="s">
         <v>111</v>
@@ -7231,7 +7231,7 @@
         <v>194</v>
       </c>
       <c r="AO39" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP39" t="s">
         <v>111</v>
@@ -7344,7 +7344,7 @@
         <v>194</v>
       </c>
       <c r="AO40" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP40" t="s">
         <v>111</v>
@@ -7457,7 +7457,7 @@
         <v>194</v>
       </c>
       <c r="AO41" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP41" t="s">
         <v>111</v>
@@ -7570,7 +7570,7 @@
         <v>194</v>
       </c>
       <c r="AO42" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP42" t="s">
         <v>111</v>
@@ -7683,7 +7683,7 @@
         <v>194</v>
       </c>
       <c r="AO43" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP43" t="s">
         <v>111</v>
@@ -7796,7 +7796,7 @@
         <v>194</v>
       </c>
       <c r="AO44" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP44" t="s">
         <v>111</v>
@@ -7909,7 +7909,7 @@
         <v>194</v>
       </c>
       <c r="AO45" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP45" t="s">
         <v>111</v>
@@ -8022,7 +8022,7 @@
         <v>194</v>
       </c>
       <c r="AO46" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP46" t="s">
         <v>111</v>
@@ -8135,7 +8135,7 @@
         <v>194</v>
       </c>
       <c r="AO47" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP47" t="s">
         <v>111</v>
@@ -8248,7 +8248,7 @@
         <v>194</v>
       </c>
       <c r="AO48" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP48" t="s">
         <v>111</v>
@@ -8361,7 +8361,7 @@
         <v>194</v>
       </c>
       <c r="AO49" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP49" t="s">
         <v>111</v>
@@ -8474,7 +8474,7 @@
         <v>194</v>
       </c>
       <c r="AO50" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP50" t="s">
         <v>111</v>
@@ -8587,7 +8587,7 @@
         <v>194</v>
       </c>
       <c r="AO51" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP51" t="s">
         <v>111</v>
@@ -8700,7 +8700,7 @@
         <v>194</v>
       </c>
       <c r="AO52" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP52" t="s">
         <v>111</v>
@@ -8813,7 +8813,7 @@
         <v>194</v>
       </c>
       <c r="AO53" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP53" t="s">
         <v>111</v>
@@ -8926,7 +8926,7 @@
         <v>194</v>
       </c>
       <c r="AO54" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP54" t="s">
         <v>111</v>
@@ -9039,7 +9039,7 @@
         <v>194</v>
       </c>
       <c r="AO55" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP55" t="s">
         <v>111</v>
@@ -9152,7 +9152,7 @@
         <v>194</v>
       </c>
       <c r="AO56" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP56" t="s">
         <v>111</v>
@@ -9265,7 +9265,7 @@
         <v>194</v>
       </c>
       <c r="AO57" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP57" t="s">
         <v>111</v>
@@ -9378,7 +9378,7 @@
         <v>194</v>
       </c>
       <c r="AO58" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP58" t="s">
         <v>111</v>
@@ -9491,7 +9491,7 @@
         <v>194</v>
       </c>
       <c r="AO59" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP59" t="s">
         <v>111</v>
@@ -9604,7 +9604,7 @@
         <v>194</v>
       </c>
       <c r="AO60" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP60" t="s">
         <v>111</v>
@@ -9717,7 +9717,7 @@
         <v>194</v>
       </c>
       <c r="AO61" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP61" t="s">
         <v>111</v>
@@ -9733,9 +9733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D5332D-C0D6-4331-A5CD-43684D01253E}">
   <dimension ref="A1:AP216"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP226" sqref="AP226"/>
+    <sheetView topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO2" sqref="AO2:AO216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9928,7 +9928,7 @@
         <v>325</v>
       </c>
       <c r="AO2" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP2" t="s">
         <v>278</v>
@@ -9984,7 +9984,7 @@
         <v>325</v>
       </c>
       <c r="AO3" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP3" t="s">
         <v>278</v>
@@ -10040,7 +10040,7 @@
         <v>326</v>
       </c>
       <c r="AO4" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP4" t="s">
         <v>278</v>
@@ -10096,7 +10096,7 @@
         <v>326</v>
       </c>
       <c r="AO5" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP5" t="s">
         <v>278</v>
@@ -10152,7 +10152,7 @@
         <v>327</v>
       </c>
       <c r="AO6" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP6" t="s">
         <v>278</v>
@@ -10210,7 +10210,7 @@
         <v>328</v>
       </c>
       <c r="AO7" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP7" t="s">
         <v>128</v>
@@ -10268,7 +10268,7 @@
         <v>328</v>
       </c>
       <c r="AO8" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP8" t="s">
         <v>128</v>
@@ -10326,7 +10326,7 @@
         <v>329</v>
       </c>
       <c r="AO9" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP9" t="s">
         <v>128</v>
@@ -10384,7 +10384,7 @@
         <v>329</v>
       </c>
       <c r="AO10" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP10" t="s">
         <v>128</v>
@@ -10442,7 +10442,7 @@
         <v>330</v>
       </c>
       <c r="AO11" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP11" t="s">
         <v>128</v>
@@ -10497,7 +10497,7 @@
         <v>328</v>
       </c>
       <c r="AO12" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>279</v>
@@ -10552,7 +10552,7 @@
         <v>328</v>
       </c>
       <c r="AO13" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>279</v>
@@ -10607,7 +10607,7 @@
         <v>329</v>
       </c>
       <c r="AO14" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>279</v>
@@ -10662,7 +10662,7 @@
         <v>329</v>
       </c>
       <c r="AO15" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>279</v>
@@ -10717,7 +10717,7 @@
         <v>330</v>
       </c>
       <c r="AO16" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>279</v>
@@ -10775,7 +10775,7 @@
         <v>328</v>
       </c>
       <c r="AO17" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP17" t="s">
         <v>112</v>
@@ -10833,7 +10833,7 @@
         <v>328</v>
       </c>
       <c r="AO18" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP18" t="s">
         <v>112</v>
@@ -10891,7 +10891,7 @@
         <v>329</v>
       </c>
       <c r="AO19" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP19" t="s">
         <v>112</v>
@@ -10949,7 +10949,7 @@
         <v>329</v>
       </c>
       <c r="AO20" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP20" t="s">
         <v>112</v>
@@ -11007,7 +11007,7 @@
         <v>330</v>
       </c>
       <c r="AO21" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP21" t="s">
         <v>112</v>
@@ -11062,7 +11062,7 @@
         <v>325</v>
       </c>
       <c r="AO22" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP22" s="2" t="s">
         <v>280</v>
@@ -11117,7 +11117,7 @@
         <v>325</v>
       </c>
       <c r="AO23" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP23" s="2" t="s">
         <v>280</v>
@@ -11172,7 +11172,7 @@
         <v>326</v>
       </c>
       <c r="AO24" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP24" s="2" t="s">
         <v>280</v>
@@ -11227,7 +11227,7 @@
         <v>326</v>
       </c>
       <c r="AO25" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP25" s="2" t="s">
         <v>280</v>
@@ -11282,7 +11282,7 @@
         <v>327</v>
       </c>
       <c r="AO26" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP26" s="2" t="s">
         <v>280</v>
@@ -11340,7 +11340,7 @@
         <v>325</v>
       </c>
       <c r="AO27" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP27" t="s">
         <v>113</v>
@@ -11398,7 +11398,7 @@
         <v>325</v>
       </c>
       <c r="AO28" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP28" t="s">
         <v>113</v>
@@ -11456,7 +11456,7 @@
         <v>326</v>
       </c>
       <c r="AO29" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP29" t="s">
         <v>113</v>
@@ -11514,7 +11514,7 @@
         <v>326</v>
       </c>
       <c r="AO30" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP30" t="s">
         <v>113</v>
@@ -11572,7 +11572,7 @@
         <v>327</v>
       </c>
       <c r="AO31" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP31" t="s">
         <v>113</v>
@@ -11630,7 +11630,7 @@
         <v>380</v>
       </c>
       <c r="AO32" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP32" s="2" t="s">
         <v>281</v>
@@ -11688,7 +11688,7 @@
         <v>380</v>
       </c>
       <c r="AO33" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP33" s="2" t="s">
         <v>281</v>
@@ -11746,7 +11746,7 @@
         <v>383</v>
       </c>
       <c r="AO34" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP34" s="2" t="s">
         <v>281</v>
@@ -11804,7 +11804,7 @@
         <v>383</v>
       </c>
       <c r="AO35" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP35" s="2" t="s">
         <v>281</v>
@@ -11862,7 +11862,7 @@
         <v>388</v>
       </c>
       <c r="AO36" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP36" s="2" t="s">
         <v>281</v>
@@ -11920,7 +11920,7 @@
         <v>380</v>
       </c>
       <c r="AO37" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP37" t="s">
         <v>114</v>
@@ -11978,7 +11978,7 @@
         <v>380</v>
       </c>
       <c r="AO38" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP38" t="s">
         <v>114</v>
@@ -12036,7 +12036,7 @@
         <v>383</v>
       </c>
       <c r="AO39" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP39" t="s">
         <v>114</v>
@@ -12094,7 +12094,7 @@
         <v>383</v>
       </c>
       <c r="AO40" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP40" t="s">
         <v>114</v>
@@ -12152,7 +12152,7 @@
         <v>388</v>
       </c>
       <c r="AO41" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP41" t="s">
         <v>114</v>
@@ -12210,7 +12210,7 @@
         <v>380</v>
       </c>
       <c r="AO42" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP42" t="s">
         <v>115</v>
@@ -12268,7 +12268,7 @@
         <v>380</v>
       </c>
       <c r="AO43" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP43" t="s">
         <v>115</v>
@@ -12326,7 +12326,7 @@
         <v>383</v>
       </c>
       <c r="AO44" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP44" t="s">
         <v>115</v>
@@ -12384,7 +12384,7 @@
         <v>383</v>
       </c>
       <c r="AO45" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP45" t="s">
         <v>115</v>
@@ -12442,7 +12442,7 @@
         <v>388</v>
       </c>
       <c r="AO46" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP46" t="s">
         <v>115</v>
@@ -12497,7 +12497,7 @@
         <v>380</v>
       </c>
       <c r="AO47" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP47" t="s">
         <v>116</v>
@@ -12552,7 +12552,7 @@
         <v>380</v>
       </c>
       <c r="AO48" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP48" t="s">
         <v>116</v>
@@ -12607,7 +12607,7 @@
         <v>383</v>
       </c>
       <c r="AO49" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP49" t="s">
         <v>116</v>
@@ -12662,7 +12662,7 @@
         <v>383</v>
       </c>
       <c r="AO50" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP50" t="s">
         <v>116</v>
@@ -12717,7 +12717,7 @@
         <v>388</v>
       </c>
       <c r="AO51" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP51" t="s">
         <v>116</v>
@@ -12775,7 +12775,7 @@
         <v>328</v>
       </c>
       <c r="AO52" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP52" t="s">
         <v>117</v>
@@ -12833,7 +12833,7 @@
         <v>328</v>
       </c>
       <c r="AO53" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP53" t="s">
         <v>117</v>
@@ -12891,7 +12891,7 @@
         <v>329</v>
       </c>
       <c r="AO54" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP54" t="s">
         <v>117</v>
@@ -12949,7 +12949,7 @@
         <v>329</v>
       </c>
       <c r="AO55" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP55" t="s">
         <v>117</v>
@@ -13007,7 +13007,7 @@
         <v>330</v>
       </c>
       <c r="AO56" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP56" t="s">
         <v>117</v>
@@ -13065,7 +13065,7 @@
         <v>325</v>
       </c>
       <c r="AO57" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP57" t="s">
         <v>118</v>
@@ -13123,7 +13123,7 @@
         <v>325</v>
       </c>
       <c r="AO58" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP58" t="s">
         <v>118</v>
@@ -13181,7 +13181,7 @@
         <v>326</v>
       </c>
       <c r="AO59" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP59" t="s">
         <v>118</v>
@@ -13239,7 +13239,7 @@
         <v>326</v>
       </c>
       <c r="AO60" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP60" t="s">
         <v>118</v>
@@ -13297,7 +13297,7 @@
         <v>327</v>
       </c>
       <c r="AO61" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP61" t="s">
         <v>118</v>
@@ -13352,7 +13352,7 @@
         <v>328</v>
       </c>
       <c r="AO62" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP62" t="s">
         <v>119</v>
@@ -13407,7 +13407,7 @@
         <v>328</v>
       </c>
       <c r="AO63" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP63" t="s">
         <v>119</v>
@@ -13462,7 +13462,7 @@
         <v>329</v>
       </c>
       <c r="AO64" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP64" t="s">
         <v>119</v>
@@ -13517,7 +13517,7 @@
         <v>329</v>
       </c>
       <c r="AO65" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP65" t="s">
         <v>119</v>
@@ -13572,7 +13572,7 @@
         <v>330</v>
       </c>
       <c r="AO66" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP66" t="s">
         <v>119</v>
@@ -13627,7 +13627,7 @@
         <v>325</v>
       </c>
       <c r="AO67" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP67" t="s">
         <v>120</v>
@@ -13682,7 +13682,7 @@
         <v>325</v>
       </c>
       <c r="AO68" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP68" t="s">
         <v>120</v>
@@ -13737,7 +13737,7 @@
         <v>326</v>
       </c>
       <c r="AO69" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP69" t="s">
         <v>120</v>
@@ -13792,7 +13792,7 @@
         <v>326</v>
       </c>
       <c r="AO70" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP70" t="s">
         <v>120</v>
@@ -13847,7 +13847,7 @@
         <v>327</v>
       </c>
       <c r="AO71" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP71" t="s">
         <v>120</v>
@@ -13902,7 +13902,7 @@
         <v>328</v>
       </c>
       <c r="AO72" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP72" s="2" t="s">
         <v>282</v>
@@ -13957,7 +13957,7 @@
         <v>328</v>
       </c>
       <c r="AO73" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP73" s="2" t="s">
         <v>282</v>
@@ -14012,7 +14012,7 @@
         <v>329</v>
       </c>
       <c r="AO74" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP74" s="2" t="s">
         <v>282</v>
@@ -14067,7 +14067,7 @@
         <v>329</v>
       </c>
       <c r="AO75" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP75" s="2" t="s">
         <v>282</v>
@@ -14122,7 +14122,7 @@
         <v>330</v>
       </c>
       <c r="AO76" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP76" s="2" t="s">
         <v>282</v>
@@ -14177,7 +14177,7 @@
         <v>380</v>
       </c>
       <c r="AO77" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP77" t="s">
         <v>283</v>
@@ -14232,7 +14232,7 @@
         <v>380</v>
       </c>
       <c r="AO78" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP78" t="s">
         <v>283</v>
@@ -14287,7 +14287,7 @@
         <v>383</v>
       </c>
       <c r="AO79" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP79" t="s">
         <v>283</v>
@@ -14342,7 +14342,7 @@
         <v>383</v>
       </c>
       <c r="AO80" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP80" t="s">
         <v>283</v>
@@ -14397,7 +14397,7 @@
         <v>388</v>
       </c>
       <c r="AO81" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP81" t="s">
         <v>283</v>
@@ -14455,7 +14455,7 @@
         <v>380</v>
       </c>
       <c r="AO82" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP82" t="s">
         <v>121</v>
@@ -14513,7 +14513,7 @@
         <v>380</v>
       </c>
       <c r="AO83" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP83" t="s">
         <v>121</v>
@@ -14571,7 +14571,7 @@
         <v>383</v>
       </c>
       <c r="AO84" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP84" t="s">
         <v>121</v>
@@ -14629,7 +14629,7 @@
         <v>383</v>
       </c>
       <c r="AO85" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP85" t="s">
         <v>121</v>
@@ -14687,7 +14687,7 @@
         <v>388</v>
       </c>
       <c r="AO86" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP86" t="s">
         <v>121</v>
@@ -14742,7 +14742,7 @@
         <v>325</v>
       </c>
       <c r="AO87" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP87" t="s">
         <v>122</v>
@@ -14797,7 +14797,7 @@
         <v>325</v>
       </c>
       <c r="AO88" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP88" t="s">
         <v>122</v>
@@ -14852,7 +14852,7 @@
         <v>326</v>
       </c>
       <c r="AO89" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP89" t="s">
         <v>122</v>
@@ -14907,7 +14907,7 @@
         <v>326</v>
       </c>
       <c r="AO90" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP90" t="s">
         <v>122</v>
@@ -14962,7 +14962,7 @@
         <v>327</v>
       </c>
       <c r="AO91" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP91" t="s">
         <v>122</v>
@@ -15020,7 +15020,7 @@
         <v>328</v>
       </c>
       <c r="AO92" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP92" t="s">
         <v>123</v>
@@ -15078,7 +15078,7 @@
         <v>328</v>
       </c>
       <c r="AO93" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP93" t="s">
         <v>123</v>
@@ -15136,7 +15136,7 @@
         <v>329</v>
       </c>
       <c r="AO94" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP94" t="s">
         <v>123</v>
@@ -15194,7 +15194,7 @@
         <v>329</v>
       </c>
       <c r="AO95" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP95" t="s">
         <v>123</v>
@@ -15252,7 +15252,7 @@
         <v>330</v>
       </c>
       <c r="AO96" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP96" t="s">
         <v>123</v>
@@ -15307,7 +15307,7 @@
         <v>380</v>
       </c>
       <c r="AO97" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP97" t="s">
         <v>126</v>
@@ -15362,7 +15362,7 @@
         <v>380</v>
       </c>
       <c r="AO98" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP98" t="s">
         <v>126</v>
@@ -15417,7 +15417,7 @@
         <v>383</v>
       </c>
       <c r="AO99" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP99" t="s">
         <v>126</v>
@@ -15472,7 +15472,7 @@
         <v>383</v>
       </c>
       <c r="AO100" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP100" t="s">
         <v>126</v>
@@ -15527,7 +15527,7 @@
         <v>388</v>
       </c>
       <c r="AO101" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP101" t="s">
         <v>126</v>
@@ -15585,7 +15585,7 @@
         <v>325</v>
       </c>
       <c r="AO102" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP102" t="s">
         <v>125</v>
@@ -15643,7 +15643,7 @@
         <v>325</v>
       </c>
       <c r="AO103" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP103" t="s">
         <v>125</v>
@@ -15701,7 +15701,7 @@
         <v>326</v>
       </c>
       <c r="AO104" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP104" t="s">
         <v>125</v>
@@ -15759,7 +15759,7 @@
         <v>326</v>
       </c>
       <c r="AO105" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP105" t="s">
         <v>125</v>
@@ -15817,7 +15817,7 @@
         <v>327</v>
       </c>
       <c r="AO106" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP106" t="s">
         <v>125</v>
@@ -15875,7 +15875,7 @@
         <v>328</v>
       </c>
       <c r="AO107" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP107" t="s">
         <v>124</v>
@@ -15933,7 +15933,7 @@
         <v>328</v>
       </c>
       <c r="AO108" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP108" t="s">
         <v>124</v>
@@ -15991,7 +15991,7 @@
         <v>329</v>
       </c>
       <c r="AO109" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP109" t="s">
         <v>124</v>
@@ -16049,7 +16049,7 @@
         <v>329</v>
       </c>
       <c r="AO110" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP110" t="s">
         <v>124</v>
@@ -16107,7 +16107,7 @@
         <v>330</v>
       </c>
       <c r="AO111" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP111" t="s">
         <v>124</v>
@@ -16165,7 +16165,7 @@
         <v>325</v>
       </c>
       <c r="AO112" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP112" t="s">
         <v>129</v>
@@ -16223,7 +16223,7 @@
         <v>325</v>
       </c>
       <c r="AO113" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP113" t="s">
         <v>129</v>
@@ -16281,7 +16281,7 @@
         <v>326</v>
       </c>
       <c r="AO114" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP114" t="s">
         <v>129</v>
@@ -16339,7 +16339,7 @@
         <v>326</v>
       </c>
       <c r="AO115" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP115" t="s">
         <v>129</v>
@@ -16397,7 +16397,7 @@
         <v>327</v>
       </c>
       <c r="AO116" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP116" t="s">
         <v>129</v>
@@ -16455,7 +16455,7 @@
         <v>380</v>
       </c>
       <c r="AO117" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP117" t="s">
         <v>127</v>
@@ -16513,7 +16513,7 @@
         <v>380</v>
       </c>
       <c r="AO118" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP118" t="s">
         <v>127</v>
@@ -16571,7 +16571,7 @@
         <v>383</v>
       </c>
       <c r="AO119" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP119" t="s">
         <v>127</v>
@@ -16629,7 +16629,7 @@
         <v>383</v>
       </c>
       <c r="AO120" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP120" t="s">
         <v>127</v>
@@ -16687,7 +16687,7 @@
         <v>388</v>
       </c>
       <c r="AO121" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP121" t="s">
         <v>127</v>
@@ -16745,7 +16745,7 @@
         <v>380</v>
       </c>
       <c r="AO122" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP122" s="2" t="s">
         <v>284</v>
@@ -16803,7 +16803,7 @@
         <v>380</v>
       </c>
       <c r="AO123" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP123" s="2" t="s">
         <v>284</v>
@@ -16861,7 +16861,7 @@
         <v>383</v>
       </c>
       <c r="AO124" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP124" s="2" t="s">
         <v>284</v>
@@ -16919,7 +16919,7 @@
         <v>383</v>
       </c>
       <c r="AO125" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP125" s="2" t="s">
         <v>284</v>
@@ -16977,7 +16977,7 @@
         <v>388</v>
       </c>
       <c r="AO126" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP126" s="2" t="s">
         <v>284</v>
@@ -17035,7 +17035,7 @@
         <v>325</v>
       </c>
       <c r="AO127" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP127" s="2" t="s">
         <v>285</v>
@@ -17093,7 +17093,7 @@
         <v>325</v>
       </c>
       <c r="AO128" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP128" s="2" t="s">
         <v>285</v>
@@ -17151,7 +17151,7 @@
         <v>326</v>
       </c>
       <c r="AO129" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP129" s="2" t="s">
         <v>285</v>
@@ -17209,7 +17209,7 @@
         <v>326</v>
       </c>
       <c r="AO130" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP130" s="2" t="s">
         <v>285</v>
@@ -17267,7 +17267,7 @@
         <v>327</v>
       </c>
       <c r="AO131" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP131" s="2" t="s">
         <v>285</v>
@@ -17325,7 +17325,7 @@
         <v>380</v>
       </c>
       <c r="AO132" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP132" t="s">
         <v>130</v>
@@ -17383,7 +17383,7 @@
         <v>380</v>
       </c>
       <c r="AO133" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP133" t="s">
         <v>130</v>
@@ -17441,7 +17441,7 @@
         <v>383</v>
       </c>
       <c r="AO134" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP134" t="s">
         <v>130</v>
@@ -17499,7 +17499,7 @@
         <v>383</v>
       </c>
       <c r="AO135" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP135" t="s">
         <v>130</v>
@@ -17557,7 +17557,7 @@
         <v>388</v>
       </c>
       <c r="AO136" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP136" t="s">
         <v>130</v>
@@ -17609,7 +17609,7 @@
         <v>328</v>
       </c>
       <c r="AO137" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP137" t="s">
         <v>131</v>
@@ -17661,7 +17661,7 @@
         <v>328</v>
       </c>
       <c r="AO138" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP138" t="s">
         <v>131</v>
@@ -17713,7 +17713,7 @@
         <v>329</v>
       </c>
       <c r="AO139" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP139" t="s">
         <v>131</v>
@@ -17765,7 +17765,7 @@
         <v>329</v>
       </c>
       <c r="AO140" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP140" t="s">
         <v>131</v>
@@ -17817,7 +17817,7 @@
         <v>330</v>
       </c>
       <c r="AO141" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP141" t="s">
         <v>131</v>
@@ -17872,7 +17872,7 @@
         <v>325</v>
       </c>
       <c r="AO142" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP142" s="2" t="s">
         <v>286</v>
@@ -17927,7 +17927,7 @@
         <v>325</v>
       </c>
       <c r="AO143" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP143" s="2" t="s">
         <v>286</v>
@@ -17982,7 +17982,7 @@
         <v>326</v>
       </c>
       <c r="AO144" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP144" s="2" t="s">
         <v>286</v>
@@ -18037,7 +18037,7 @@
         <v>326</v>
       </c>
       <c r="AO145" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP145" s="2" t="s">
         <v>286</v>
@@ -18092,7 +18092,7 @@
         <v>327</v>
       </c>
       <c r="AO146" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP146" s="2" t="s">
         <v>286</v>
@@ -18150,7 +18150,7 @@
         <v>380</v>
       </c>
       <c r="AO147" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP147" t="s">
         <v>132</v>
@@ -18208,7 +18208,7 @@
         <v>380</v>
       </c>
       <c r="AO148" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP148" t="s">
         <v>132</v>
@@ -18266,7 +18266,7 @@
         <v>383</v>
       </c>
       <c r="AO149" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP149" t="s">
         <v>132</v>
@@ -18324,7 +18324,7 @@
         <v>383</v>
       </c>
       <c r="AO150" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP150" t="s">
         <v>132</v>
@@ -18382,7 +18382,7 @@
         <v>388</v>
       </c>
       <c r="AO151" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP151" t="s">
         <v>132</v>
@@ -18440,7 +18440,7 @@
         <v>380</v>
       </c>
       <c r="AO152" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP152" t="s">
         <v>132</v>
@@ -18498,7 +18498,7 @@
         <v>380</v>
       </c>
       <c r="AO153" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP153" t="s">
         <v>132</v>
@@ -18556,7 +18556,7 @@
         <v>383</v>
       </c>
       <c r="AO154" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP154" t="s">
         <v>132</v>
@@ -18614,7 +18614,7 @@
         <v>383</v>
       </c>
       <c r="AO155" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP155" t="s">
         <v>132</v>
@@ -18672,7 +18672,7 @@
         <v>388</v>
       </c>
       <c r="AO156" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP156" t="s">
         <v>132</v>
@@ -18730,7 +18730,7 @@
         <v>328</v>
       </c>
       <c r="AO157" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP157" s="2" t="s">
         <v>287</v>
@@ -18788,7 +18788,7 @@
         <v>328</v>
       </c>
       <c r="AO158" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP158" s="2" t="s">
         <v>287</v>
@@ -18846,7 +18846,7 @@
         <v>329</v>
       </c>
       <c r="AO159" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP159" s="2" t="s">
         <v>287</v>
@@ -18904,7 +18904,7 @@
         <v>329</v>
       </c>
       <c r="AO160" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP160" s="2" t="s">
         <v>287</v>
@@ -18962,7 +18962,7 @@
         <v>330</v>
       </c>
       <c r="AO161" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP161" s="2" t="s">
         <v>287</v>
@@ -19020,7 +19020,7 @@
         <v>380</v>
       </c>
       <c r="AO162" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP162" s="1" t="s">
         <v>133</v>
@@ -19078,7 +19078,7 @@
         <v>380</v>
       </c>
       <c r="AO163" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP163" s="1" t="s">
         <v>133</v>
@@ -19136,7 +19136,7 @@
         <v>383</v>
       </c>
       <c r="AO164" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP164" s="1" t="s">
         <v>133</v>
@@ -19194,7 +19194,7 @@
         <v>383</v>
       </c>
       <c r="AO165" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP165" s="1" t="s">
         <v>133</v>
@@ -19252,7 +19252,7 @@
         <v>388</v>
       </c>
       <c r="AO166" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP166" s="1" t="s">
         <v>133</v>
@@ -19310,7 +19310,7 @@
         <v>380</v>
       </c>
       <c r="AO167" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP167" t="s">
         <v>134</v>
@@ -19368,7 +19368,7 @@
         <v>380</v>
       </c>
       <c r="AO168" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP168" t="s">
         <v>134</v>
@@ -19426,7 +19426,7 @@
         <v>383</v>
       </c>
       <c r="AO169" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP169" t="s">
         <v>134</v>
@@ -19484,7 +19484,7 @@
         <v>383</v>
       </c>
       <c r="AO170" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP170" t="s">
         <v>134</v>
@@ -19542,7 +19542,7 @@
         <v>388</v>
       </c>
       <c r="AO171" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP171" t="s">
         <v>134</v>
@@ -19593,7 +19593,7 @@
         <v>472</v>
       </c>
       <c r="AO172" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP172" s="2" t="s">
         <v>292</v>
@@ -19644,7 +19644,7 @@
         <v>472</v>
       </c>
       <c r="AO173" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP173" s="2" t="s">
         <v>292</v>
@@ -19695,7 +19695,7 @@
         <v>473</v>
       </c>
       <c r="AO174" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP174" s="2" t="s">
         <v>292</v>
@@ -19746,7 +19746,7 @@
         <v>473</v>
       </c>
       <c r="AO175" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP175" s="2" t="s">
         <v>292</v>
@@ -19797,7 +19797,7 @@
         <v>474</v>
       </c>
       <c r="AO176" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP176" s="2" t="s">
         <v>292</v>
@@ -19852,7 +19852,7 @@
         <v>380</v>
       </c>
       <c r="AO177" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP177" t="s">
         <v>167</v>
@@ -19907,7 +19907,7 @@
         <v>380</v>
       </c>
       <c r="AO178" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP178" t="s">
         <v>167</v>
@@ -19962,7 +19962,7 @@
         <v>383</v>
       </c>
       <c r="AO179" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP179" t="s">
         <v>167</v>
@@ -20017,7 +20017,7 @@
         <v>383</v>
       </c>
       <c r="AO180" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP180" t="s">
         <v>167</v>
@@ -20072,7 +20072,7 @@
         <v>388</v>
       </c>
       <c r="AO181" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP181" t="s">
         <v>167</v>
@@ -20127,7 +20127,7 @@
         <v>325</v>
       </c>
       <c r="AO182" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP182" t="s">
         <v>168</v>
@@ -20182,7 +20182,7 @@
         <v>325</v>
       </c>
       <c r="AO183" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP183" t="s">
         <v>168</v>
@@ -20237,7 +20237,7 @@
         <v>326</v>
       </c>
       <c r="AO184" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP184" t="s">
         <v>168</v>
@@ -20292,7 +20292,7 @@
         <v>326</v>
       </c>
       <c r="AO185" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP185" t="s">
         <v>168</v>
@@ -20347,7 +20347,7 @@
         <v>327</v>
       </c>
       <c r="AO186" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP186" t="s">
         <v>168</v>
@@ -20402,7 +20402,7 @@
         <v>328</v>
       </c>
       <c r="AO187" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP187" t="s">
         <v>169</v>
@@ -20457,7 +20457,7 @@
         <v>328</v>
       </c>
       <c r="AO188" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP188" t="s">
         <v>169</v>
@@ -20512,7 +20512,7 @@
         <v>329</v>
       </c>
       <c r="AO189" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP189" t="s">
         <v>169</v>
@@ -20567,7 +20567,7 @@
         <v>329</v>
       </c>
       <c r="AO190" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP190" t="s">
         <v>169</v>
@@ -20622,7 +20622,7 @@
         <v>330</v>
       </c>
       <c r="AO191" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP191" t="s">
         <v>169</v>
@@ -20680,7 +20680,7 @@
         <v>325</v>
       </c>
       <c r="AO192" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP192" t="s">
         <v>288</v>
@@ -20738,7 +20738,7 @@
         <v>325</v>
       </c>
       <c r="AO193" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP193" t="s">
         <v>288</v>
@@ -20796,7 +20796,7 @@
         <v>326</v>
       </c>
       <c r="AO194" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP194" t="s">
         <v>288</v>
@@ -20854,7 +20854,7 @@
         <v>326</v>
       </c>
       <c r="AO195" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP195" t="s">
         <v>288</v>
@@ -20912,7 +20912,7 @@
         <v>327</v>
       </c>
       <c r="AO196" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP196" t="s">
         <v>288</v>
@@ -20967,7 +20967,7 @@
         <v>328</v>
       </c>
       <c r="AO197" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP197" t="s">
         <v>289</v>
@@ -21022,7 +21022,7 @@
         <v>328</v>
       </c>
       <c r="AO198" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP198" t="s">
         <v>289</v>
@@ -21077,7 +21077,7 @@
         <v>329</v>
       </c>
       <c r="AO199" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP199" t="s">
         <v>289</v>
@@ -21132,7 +21132,7 @@
         <v>329</v>
       </c>
       <c r="AO200" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP200" t="s">
         <v>289</v>
@@ -21187,7 +21187,7 @@
         <v>330</v>
       </c>
       <c r="AO201" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP201" t="s">
         <v>289</v>
@@ -21245,7 +21245,7 @@
         <v>380</v>
       </c>
       <c r="AO202" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP202" t="s">
         <v>290</v>
@@ -21303,7 +21303,7 @@
         <v>380</v>
       </c>
       <c r="AO203" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP203" t="s">
         <v>290</v>
@@ -21361,7 +21361,7 @@
         <v>383</v>
       </c>
       <c r="AO204" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP204" t="s">
         <v>290</v>
@@ -21419,7 +21419,7 @@
         <v>383</v>
       </c>
       <c r="AO205" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP205" t="s">
         <v>290</v>
@@ -21477,7 +21477,7 @@
         <v>388</v>
       </c>
       <c r="AO206" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP206" t="s">
         <v>290</v>
@@ -21535,7 +21535,7 @@
         <v>325</v>
       </c>
       <c r="AO207" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP207" t="s">
         <v>291</v>
@@ -21593,7 +21593,7 @@
         <v>325</v>
       </c>
       <c r="AO208" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP208" t="s">
         <v>291</v>
@@ -21651,7 +21651,7 @@
         <v>326</v>
       </c>
       <c r="AO209" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP209" t="s">
         <v>291</v>
@@ -21709,7 +21709,7 @@
         <v>326</v>
       </c>
       <c r="AO210" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP210" t="s">
         <v>291</v>
@@ -21767,7 +21767,7 @@
         <v>327</v>
       </c>
       <c r="AO211" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP211" t="s">
         <v>291</v>
@@ -21804,7 +21804,7 @@
         <v>4</v>
       </c>
       <c r="AH212" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AI212" t="s">
         <v>397</v>
@@ -21819,16 +21819,16 @@
         <v>485</v>
       </c>
       <c r="AM212" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AN212" t="s">
         <v>380</v>
       </c>
       <c r="AO212" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP212" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="213" spans="1:42" x14ac:dyDescent="0.25">
@@ -21862,7 +21862,7 @@
         <v>4</v>
       </c>
       <c r="AH213" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AI213" t="s">
         <v>399</v>
@@ -21877,16 +21877,16 @@
         <v>485</v>
       </c>
       <c r="AM213" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AN213" t="s">
         <v>380</v>
       </c>
       <c r="AO213" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP213" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="214" spans="1:42" x14ac:dyDescent="0.25">
@@ -21920,7 +21920,7 @@
         <v>4</v>
       </c>
       <c r="AH214" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AI214" t="s">
         <v>400</v>
@@ -21935,16 +21935,16 @@
         <v>485</v>
       </c>
       <c r="AM214" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AN214" t="s">
         <v>383</v>
       </c>
       <c r="AO214" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP214" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="215" spans="1:42" x14ac:dyDescent="0.25">
@@ -21978,7 +21978,7 @@
         <v>6</v>
       </c>
       <c r="AH215" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AI215" t="s">
         <v>401</v>
@@ -21993,16 +21993,16 @@
         <v>486</v>
       </c>
       <c r="AM215" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AN215" t="s">
         <v>383</v>
       </c>
       <c r="AO215" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP215" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="216" spans="1:42" x14ac:dyDescent="0.25">
@@ -22036,7 +22036,7 @@
         <v>6</v>
       </c>
       <c r="AH216" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AI216" t="s">
         <v>403</v>
@@ -22051,16 +22051,16 @@
         <v>486</v>
       </c>
       <c r="AM216" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AN216" t="s">
         <v>388</v>
       </c>
       <c r="AO216" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AP216" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -22073,7 +22073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE975E6E-17B1-40AE-80BD-D23A6587DC30}">
   <dimension ref="A1:AQ261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AP266" sqref="AP266"/>
     </sheetView>
@@ -36455,7 +36455,7 @@
         <v>2</v>
       </c>
       <c r="AH252" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AI252" t="s">
         <v>548</v>
@@ -36470,7 +36470,7 @@
         <v>524</v>
       </c>
       <c r="AM252" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AN252" t="s">
         <v>388</v>
@@ -36479,7 +36479,7 @@
         <v>504</v>
       </c>
       <c r="AP252" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="253" spans="1:42" x14ac:dyDescent="0.25">
@@ -36513,7 +36513,7 @@
         <v>2</v>
       </c>
       <c r="AH253" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AI253" t="s">
         <v>549</v>
@@ -36528,7 +36528,7 @@
         <v>524</v>
       </c>
       <c r="AM253" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AN253" t="s">
         <v>527</v>
@@ -36537,7 +36537,7 @@
         <v>504</v>
       </c>
       <c r="AP253" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="254" spans="1:42" x14ac:dyDescent="0.25">
@@ -36571,7 +36571,7 @@
         <v>2</v>
       </c>
       <c r="AH254" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AI254" t="s">
         <v>550</v>
@@ -36586,7 +36586,7 @@
         <v>524</v>
       </c>
       <c r="AM254" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AN254" t="s">
         <v>527</v>
@@ -36595,7 +36595,7 @@
         <v>504</v>
       </c>
       <c r="AP254" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="255" spans="1:42" x14ac:dyDescent="0.25">
@@ -36629,7 +36629,7 @@
         <v>2</v>
       </c>
       <c r="AH255" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AI255" t="s">
         <v>551</v>
@@ -36644,7 +36644,7 @@
         <v>524</v>
       </c>
       <c r="AM255" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AN255" t="s">
         <v>527</v>
@@ -36653,7 +36653,7 @@
         <v>504</v>
       </c>
       <c r="AP255" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="256" spans="1:42" x14ac:dyDescent="0.25">
@@ -36687,7 +36687,7 @@
         <v>3</v>
       </c>
       <c r="AH256" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AI256" t="s">
         <v>552</v>
@@ -36702,7 +36702,7 @@
         <v>525</v>
       </c>
       <c r="AM256" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AN256" t="s">
         <v>528</v>
@@ -36711,7 +36711,7 @@
         <v>504</v>
       </c>
       <c r="AP256" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="257" spans="1:42" x14ac:dyDescent="0.25">
@@ -36745,7 +36745,7 @@
         <v>8</v>
       </c>
       <c r="AH257" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI257" t="s">
         <v>516</v>
@@ -36760,7 +36760,7 @@
         <v>402</v>
       </c>
       <c r="AM257" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AN257" t="s">
         <v>388</v>
@@ -36769,7 +36769,7 @@
         <v>505</v>
       </c>
       <c r="AP257" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="258" spans="1:42" x14ac:dyDescent="0.25">
@@ -36803,7 +36803,7 @@
         <v>8</v>
       </c>
       <c r="AH258" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI258" t="s">
         <v>517</v>
@@ -36818,7 +36818,7 @@
         <v>402</v>
       </c>
       <c r="AM258" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AN258" t="s">
         <v>527</v>
@@ -36827,7 +36827,7 @@
         <v>505</v>
       </c>
       <c r="AP258" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="259" spans="1:42" x14ac:dyDescent="0.25">
@@ -36861,13 +36861,13 @@
         <v>11</v>
       </c>
       <c r="AH259" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI259" t="s">
         <v>518</v>
       </c>
       <c r="AJ259" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AK259" t="s">
         <v>395</v>
@@ -36876,7 +36876,7 @@
         <v>402</v>
       </c>
       <c r="AM259" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AN259" t="s">
         <v>527</v>
@@ -36885,7 +36885,7 @@
         <v>505</v>
       </c>
       <c r="AP259" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="260" spans="1:42" x14ac:dyDescent="0.25">
@@ -36919,13 +36919,13 @@
         <v>11</v>
       </c>
       <c r="AH260" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI260" t="s">
         <v>519</v>
       </c>
       <c r="AJ260" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AK260" t="s">
         <v>554</v>
@@ -36934,7 +36934,7 @@
         <v>402</v>
       </c>
       <c r="AM260" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AN260" t="s">
         <v>527</v>
@@ -36943,7 +36943,7 @@
         <v>505</v>
       </c>
       <c r="AP260" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="261" spans="1:42" x14ac:dyDescent="0.25">
@@ -36977,13 +36977,13 @@
         <v>11</v>
       </c>
       <c r="AH261" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AI261" t="s">
         <v>520</v>
       </c>
       <c r="AJ261" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AK261" t="s">
         <v>554</v>
@@ -36992,7 +36992,7 @@
         <v>641</v>
       </c>
       <c r="AM261" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AN261" t="s">
         <v>528</v>
@@ -37001,7 +37001,7 @@
         <v>505</v>
       </c>
       <c r="AP261" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>

--- a/GakuConverter/GakuStats.xlsx
+++ b/GakuConverter/GakuStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chun\gakumas-tierlist\GakuConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F70D08-C78E-4445-96A0-A6B05CA8CFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FF8A70-650B-438E-B8DA-EC558F0AD7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{6509477F-BBC8-40DD-A1E6-76B0F6EEA054}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5085" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5175" uniqueCount="730">
   <si>
     <t>type</t>
   </si>
@@ -2457,13 +2457,43 @@
     <t>When acquiring a Mental (M) card, gain +1 Vocal</t>
   </si>
   <si>
-    <t>Signature - The game is just beginning !</t>
-  </si>
-  <si>
     <t>Cost: -4 (-3)\nParameter: +2 (+5)\nGain +2 (+5) Shield\nGain +3 turns of Damage Reduction\nNext turn, draw 1 more skill card\nOnce per lesson (cannot be duplicated)</t>
   </si>
   <si>
     <t>event</t>
+  </si>
+  <si>
+    <t>Humilating 2nd Place</t>
+  </si>
+  <si>
+    <t>When a skill card is deleted, gain +4 Vocal</t>
+  </si>
+  <si>
+    <t>When a skill card is deleted, gain +8 Vocal</t>
+  </si>
+  <si>
+    <t>Signature - Clenched Towel</t>
+  </si>
+  <si>
+    <t>When enhancing a skill card with a Impression effect, if Vocal is 700+, enhance a random skill card\nTwice per produce</t>
+  </si>
+  <si>
+    <t>Still as clumsy as ever</t>
+  </si>
+  <si>
+    <t>When acquiring a skill card with a Impression effect, gain +3 Vocal</t>
+  </si>
+  <si>
+    <t>When acquiring a skill card with a Impression effect, gain +4 Vocal</t>
+  </si>
+  <si>
+    <t>Signature - The Determination of a Childhood Friend</t>
+  </si>
+  <si>
+    <t>Signature - The game is just beginning!</t>
+  </si>
+  <si>
+    <t>If Vocal is 200+ at the start of a Special Guidance, gain +100 P points</t>
   </si>
 </sst>
 </file>
@@ -2980,7 +3010,7 @@
         <v>173</v>
       </c>
       <c r="AJ1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AK1" t="s">
         <v>14</v>
@@ -9968,11 +9998,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D5332D-C0D6-4331-A5CD-43684D01253E}">
-  <dimension ref="A1:AS221"/>
+  <dimension ref="A1:AS226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ172" sqref="AJ172:AJ176"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A222" sqref="A222:AS226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9982,8 +10012,7 @@
     <col min="37" max="37" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="69.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="47.28515625" customWidth="1"/>
-    <col min="41" max="41" width="70" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="70" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="64.5703125" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="21.42578125" customWidth="1"/>
     <col min="45" max="45" width="179.42578125" bestFit="1" customWidth="1"/>
@@ -10096,7 +10125,7 @@
         <v>173</v>
       </c>
       <c r="AJ1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AK1" t="s">
         <v>14</v>
@@ -21448,7 +21477,7 @@
     </row>
     <row r="192" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f t="shared" ref="A192:A221" si="7">A187+1</f>
+        <f t="shared" ref="A192:A226" si="7">A187+1</f>
         <v>20039</v>
       </c>
       <c r="B192">
@@ -22666,7 +22695,7 @@
         <v>2</v>
       </c>
       <c r="E212">
-        <f t="shared" ref="E212:E221" si="9">E207</f>
+        <f t="shared" ref="E212:E226" si="9">E207</f>
         <v>0</v>
       </c>
       <c r="G212">
@@ -23259,6 +23288,311 @@
       </c>
       <c r="AS221" t="s">
         <v>706</v>
+      </c>
+    </row>
+    <row r="222" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f t="shared" si="7"/>
+        <v>20045</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>33</v>
+      </c>
+      <c r="O222">
+        <v>5</v>
+      </c>
+      <c r="AE222">
+        <v>4</v>
+      </c>
+      <c r="AI222">
+        <v>9</v>
+      </c>
+      <c r="AJ222">
+        <v>22</v>
+      </c>
+      <c r="AK222" t="s">
+        <v>719</v>
+      </c>
+      <c r="AL222" t="s">
+        <v>359</v>
+      </c>
+      <c r="AM222" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN222" t="s">
+        <v>333</v>
+      </c>
+      <c r="AO222" t="s">
+        <v>720</v>
+      </c>
+      <c r="AP222" t="s">
+        <v>722</v>
+      </c>
+      <c r="AQ222" t="s">
+        <v>327</v>
+      </c>
+      <c r="AR222" t="s">
+        <v>702</v>
+      </c>
+      <c r="AS222" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="223" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f t="shared" si="7"/>
+        <v>20045</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>36</v>
+      </c>
+      <c r="O223">
+        <v>10</v>
+      </c>
+      <c r="AE223">
+        <v>4</v>
+      </c>
+      <c r="AI223">
+        <v>9</v>
+      </c>
+      <c r="AJ223">
+        <v>22</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>719</v>
+      </c>
+      <c r="AL223" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM223" t="s">
+        <v>421</v>
+      </c>
+      <c r="AN223" t="s">
+        <v>333</v>
+      </c>
+      <c r="AO223" t="s">
+        <v>720</v>
+      </c>
+      <c r="AP223" t="s">
+        <v>722</v>
+      </c>
+      <c r="AQ223" t="s">
+        <v>327</v>
+      </c>
+      <c r="AR223" t="s">
+        <v>702</v>
+      </c>
+      <c r="AS223" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="224" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f t="shared" si="7"/>
+        <v>20045</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G224">
+        <v>39</v>
+      </c>
+      <c r="O224">
+        <v>10</v>
+      </c>
+      <c r="AE224">
+        <v>4</v>
+      </c>
+      <c r="AI224">
+        <v>9</v>
+      </c>
+      <c r="AJ224">
+        <v>26</v>
+      </c>
+      <c r="AK224" t="s">
+        <v>719</v>
+      </c>
+      <c r="AL224" t="s">
+        <v>361</v>
+      </c>
+      <c r="AM224" t="s">
+        <v>421</v>
+      </c>
+      <c r="AN224" t="s">
+        <v>333</v>
+      </c>
+      <c r="AO224" t="s">
+        <v>720</v>
+      </c>
+      <c r="AP224" t="s">
+        <v>722</v>
+      </c>
+      <c r="AQ224" t="s">
+        <v>328</v>
+      </c>
+      <c r="AR224" t="s">
+        <v>702</v>
+      </c>
+      <c r="AS224" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="225" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f t="shared" si="7"/>
+        <v>20045</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="G225">
+        <v>42</v>
+      </c>
+      <c r="O225">
+        <v>10</v>
+      </c>
+      <c r="AE225">
+        <v>8</v>
+      </c>
+      <c r="AI225">
+        <v>9</v>
+      </c>
+      <c r="AJ225">
+        <v>26</v>
+      </c>
+      <c r="AK225" t="s">
+        <v>719</v>
+      </c>
+      <c r="AL225" t="s">
+        <v>362</v>
+      </c>
+      <c r="AM225" t="s">
+        <v>421</v>
+      </c>
+      <c r="AN225" t="s">
+        <v>333</v>
+      </c>
+      <c r="AO225" t="s">
+        <v>721</v>
+      </c>
+      <c r="AP225" t="s">
+        <v>722</v>
+      </c>
+      <c r="AQ225" t="s">
+        <v>328</v>
+      </c>
+      <c r="AR225" t="s">
+        <v>702</v>
+      </c>
+      <c r="AS225" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="226" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f t="shared" si="7"/>
+        <v>20045</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G226">
+        <v>45</v>
+      </c>
+      <c r="O226">
+        <v>10</v>
+      </c>
+      <c r="AE226">
+        <v>8</v>
+      </c>
+      <c r="AI226">
+        <v>17</v>
+      </c>
+      <c r="AJ226">
+        <v>30</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>719</v>
+      </c>
+      <c r="AL226" t="s">
+        <v>363</v>
+      </c>
+      <c r="AM226" t="s">
+        <v>421</v>
+      </c>
+      <c r="AN226" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO226" t="s">
+        <v>721</v>
+      </c>
+      <c r="AP226" t="s">
+        <v>722</v>
+      </c>
+      <c r="AQ226" t="s">
+        <v>329</v>
+      </c>
+      <c r="AR226" t="s">
+        <v>702</v>
+      </c>
+      <c r="AS226" t="s">
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -23269,11 +23603,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE975E6E-17B1-40AE-80BD-D23A6587DC30}">
-  <dimension ref="A1:AT271"/>
+  <dimension ref="A1:AT276"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ207" sqref="AJ207:AJ216"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS276" sqref="A272:AS276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23285,7 +23619,7 @@
     <col min="39" max="39" width="73.5703125" customWidth="1"/>
     <col min="40" max="40" width="69.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="70" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="41.7109375" customWidth="1"/>
+    <col min="42" max="42" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="24.28515625" customWidth="1"/>
     <col min="45" max="45" width="237.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -23397,7 +23731,7 @@
         <v>173</v>
       </c>
       <c r="AJ1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AK1" t="s">
         <v>14</v>
@@ -37531,7 +37865,7 @@
     </row>
     <row r="238" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A238">
-        <f t="shared" ref="A238:A271" si="8">A233+1</f>
+        <f t="shared" ref="A238:A276" si="8">A233+1</f>
         <v>30048</v>
       </c>
       <c r="B238">
@@ -39344,7 +39678,7 @@
         <v>716</v>
       </c>
       <c r="AP267" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="AQ267" t="s">
         <v>329</v>
@@ -39353,7 +39687,7 @@
         <v>503</v>
       </c>
       <c r="AS267" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="268" spans="1:45" x14ac:dyDescent="0.25">
@@ -39402,7 +39736,7 @@
         <v>716</v>
       </c>
       <c r="AP268" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="AQ268" t="s">
         <v>536</v>
@@ -39411,7 +39745,7 @@
         <v>503</v>
       </c>
       <c r="AS268" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="269" spans="1:45" x14ac:dyDescent="0.25">
@@ -39460,7 +39794,7 @@
         <v>716</v>
       </c>
       <c r="AP269" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="AQ269" t="s">
         <v>536</v>
@@ -39469,7 +39803,7 @@
         <v>503</v>
       </c>
       <c r="AS269" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="270" spans="1:45" x14ac:dyDescent="0.25">
@@ -39518,7 +39852,7 @@
         <v>716</v>
       </c>
       <c r="AP270" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="AQ270" t="s">
         <v>536</v>
@@ -39527,7 +39861,7 @@
         <v>503</v>
       </c>
       <c r="AS270" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="271" spans="1:45" x14ac:dyDescent="0.25">
@@ -39576,7 +39910,7 @@
         <v>572</v>
       </c>
       <c r="AP271" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="AQ271" t="s">
         <v>537</v>
@@ -39585,7 +39919,312 @@
         <v>503</v>
       </c>
       <c r="AS271" t="s">
-        <v>718</v>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="272" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <f t="shared" si="8"/>
+        <v>30055</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <v>3</v>
+      </c>
+      <c r="E272">
+        <f t="shared" ref="E272:E276" si="10">E267</f>
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>48</v>
+      </c>
+      <c r="K272">
+        <v>13</v>
+      </c>
+      <c r="O272">
+        <v>11</v>
+      </c>
+      <c r="Z272">
+        <v>3</v>
+      </c>
+      <c r="AJ272">
+        <v>30</v>
+      </c>
+      <c r="AK272" t="s">
+        <v>724</v>
+      </c>
+      <c r="AL272" t="s">
+        <v>557</v>
+      </c>
+      <c r="AM272" t="s">
+        <v>725</v>
+      </c>
+      <c r="AN272" t="s">
+        <v>340</v>
+      </c>
+      <c r="AO272" t="s">
+        <v>570</v>
+      </c>
+      <c r="AP272" t="s">
+        <v>727</v>
+      </c>
+      <c r="AQ272" t="s">
+        <v>329</v>
+      </c>
+      <c r="AR272" t="s">
+        <v>504</v>
+      </c>
+      <c r="AS272" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="273" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <f t="shared" si="8"/>
+        <v>30055</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+      <c r="D273">
+        <v>3</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>51</v>
+      </c>
+      <c r="K273">
+        <v>13</v>
+      </c>
+      <c r="O273">
+        <v>11</v>
+      </c>
+      <c r="Z273">
+        <v>3</v>
+      </c>
+      <c r="AJ273">
+        <v>35</v>
+      </c>
+      <c r="AK273" t="s">
+        <v>724</v>
+      </c>
+      <c r="AL273" t="s">
+        <v>558</v>
+      </c>
+      <c r="AM273" t="s">
+        <v>725</v>
+      </c>
+      <c r="AN273" t="s">
+        <v>340</v>
+      </c>
+      <c r="AO273" t="s">
+        <v>570</v>
+      </c>
+      <c r="AP273" t="s">
+        <v>727</v>
+      </c>
+      <c r="AQ273" t="s">
+        <v>536</v>
+      </c>
+      <c r="AR273" t="s">
+        <v>504</v>
+      </c>
+      <c r="AS273" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="274" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <f t="shared" si="8"/>
+        <v>30055</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+      <c r="D274">
+        <v>3</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G274">
+        <v>54</v>
+      </c>
+      <c r="K274">
+        <v>13</v>
+      </c>
+      <c r="O274">
+        <v>11</v>
+      </c>
+      <c r="Z274">
+        <v>4</v>
+      </c>
+      <c r="AJ274">
+        <v>35</v>
+      </c>
+      <c r="AK274" t="s">
+        <v>724</v>
+      </c>
+      <c r="AL274" t="s">
+        <v>559</v>
+      </c>
+      <c r="AM274" t="s">
+        <v>726</v>
+      </c>
+      <c r="AN274" t="s">
+        <v>340</v>
+      </c>
+      <c r="AO274" t="s">
+        <v>570</v>
+      </c>
+      <c r="AP274" t="s">
+        <v>727</v>
+      </c>
+      <c r="AQ274" t="s">
+        <v>536</v>
+      </c>
+      <c r="AR274" t="s">
+        <v>504</v>
+      </c>
+      <c r="AS274" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="275" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <f t="shared" si="8"/>
+        <v>30055</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+      <c r="D275">
+        <v>3</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G275">
+        <v>57</v>
+      </c>
+      <c r="K275">
+        <v>17</v>
+      </c>
+      <c r="O275">
+        <v>11</v>
+      </c>
+      <c r="Z275">
+        <v>4</v>
+      </c>
+      <c r="AJ275">
+        <v>35</v>
+      </c>
+      <c r="AK275" t="s">
+        <v>724</v>
+      </c>
+      <c r="AL275" t="s">
+        <v>560</v>
+      </c>
+      <c r="AM275" t="s">
+        <v>726</v>
+      </c>
+      <c r="AN275" t="s">
+        <v>564</v>
+      </c>
+      <c r="AO275" t="s">
+        <v>570</v>
+      </c>
+      <c r="AP275" t="s">
+        <v>727</v>
+      </c>
+      <c r="AQ275" t="s">
+        <v>536</v>
+      </c>
+      <c r="AR275" t="s">
+        <v>504</v>
+      </c>
+      <c r="AS275" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="276" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <f t="shared" si="8"/>
+        <v>30055</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+      <c r="D276">
+        <v>3</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G276">
+        <v>60</v>
+      </c>
+      <c r="K276">
+        <v>17</v>
+      </c>
+      <c r="O276">
+        <v>15</v>
+      </c>
+      <c r="Z276">
+        <v>4</v>
+      </c>
+      <c r="AJ276">
+        <v>40</v>
+      </c>
+      <c r="AK276" t="s">
+        <v>724</v>
+      </c>
+      <c r="AL276" t="s">
+        <v>561</v>
+      </c>
+      <c r="AM276" t="s">
+        <v>726</v>
+      </c>
+      <c r="AN276" t="s">
+        <v>564</v>
+      </c>
+      <c r="AO276" t="s">
+        <v>571</v>
+      </c>
+      <c r="AP276" t="s">
+        <v>727</v>
+      </c>
+      <c r="AQ276" t="s">
+        <v>537</v>
+      </c>
+      <c r="AR276" t="s">
+        <v>504</v>
+      </c>
+      <c r="AS276" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/GakuConverter/GakuStats.xlsx
+++ b/GakuConverter/GakuStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chun\gakumas-tierlist\GakuConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FD66B4-F749-4D3C-AE71-19F6DF06C156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DB0714-BDFC-4491-91EF-B33960A1F9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{6509477F-BBC8-40DD-A1E6-76B0F6EEA054}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5724" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5814" uniqueCount="806">
   <si>
     <t>type</t>
   </si>
@@ -2616,6 +2616,36 @@
   </si>
   <si>
     <t>If Visual is 700+ when selecting Activity provision or Present, enhance a random skill card\nRecover +4 Stamina\nTwice per produce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You always do your best. </t>
+  </si>
+  <si>
+    <t>When acquiring a P Drink, gain +4 Visual</t>
+  </si>
+  <si>
+    <t>When acquiring a P Drink, gain +5 Visual</t>
+  </si>
+  <si>
+    <t>Signature - Wrapped by Kindness</t>
+  </si>
+  <si>
+    <t>Dance lesson / Dance turn only\nAt the start of the turn, if Good Shape is 10+, gain +4 Perfect Shape and +10 Energy\nOnce per lesson</t>
+  </si>
+  <si>
+    <t>Super Tricky Fashion Show</t>
+  </si>
+  <si>
+    <t>When acquiring a skill card with a Concentration effect, gain +2 Dance</t>
+  </si>
+  <si>
+    <t>When acquiring a skill card with a Concentration effect, gain +3 Dance</t>
+  </si>
+  <si>
+    <t>Signature - Fitting Necktie</t>
+  </si>
+  <si>
+    <t>If Dance is 700+ when selecting Activity provision or Present, recover 5 Stamina and gain +40 P Points\nTwice per produce</t>
   </si>
 </sst>
 </file>
@@ -10129,11 +10159,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D5332D-C0D6-4331-A5CD-43684D01253E}">
-  <dimension ref="A1:AV246"/>
+  <dimension ref="A1:AV251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A246" sqref="A242:AV246"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV257" sqref="AV257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21618,7 +21648,7 @@
     </row>
     <row r="192" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f t="shared" ref="A192:A246" si="7">A187+1</f>
+        <f t="shared" ref="A192:A241" si="7">A187+1</f>
         <v>20039</v>
       </c>
       <c r="B192">
@@ -24954,6 +24984,286 @@
       </c>
       <c r="AV246" t="s">
         <v>785</v>
+      </c>
+    </row>
+    <row r="247" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>20050</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>2</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K247">
+        <v>7</v>
+      </c>
+      <c r="Y247">
+        <v>2</v>
+      </c>
+      <c r="AM247">
+        <v>22</v>
+      </c>
+      <c r="AN247" t="s">
+        <v>801</v>
+      </c>
+      <c r="AO247" t="s">
+        <v>363</v>
+      </c>
+      <c r="AP247" t="s">
+        <v>393</v>
+      </c>
+      <c r="AQ247" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR247" t="s">
+        <v>802</v>
+      </c>
+      <c r="AS247" t="s">
+        <v>804</v>
+      </c>
+      <c r="AT247" t="s">
+        <v>366</v>
+      </c>
+      <c r="AU247" t="s">
+        <v>683</v>
+      </c>
+      <c r="AV247" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="248" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>20050</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K248">
+        <v>7</v>
+      </c>
+      <c r="Y248">
+        <v>2</v>
+      </c>
+      <c r="AM248">
+        <v>22</v>
+      </c>
+      <c r="AN248" t="s">
+        <v>801</v>
+      </c>
+      <c r="AO248" t="s">
+        <v>367</v>
+      </c>
+      <c r="AP248" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ248" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR248" t="s">
+        <v>802</v>
+      </c>
+      <c r="AS248" t="s">
+        <v>804</v>
+      </c>
+      <c r="AT248" t="s">
+        <v>366</v>
+      </c>
+      <c r="AU248" t="s">
+        <v>683</v>
+      </c>
+      <c r="AV248" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="249" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>20050</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+      <c r="I249">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K249">
+        <v>7</v>
+      </c>
+      <c r="Y249">
+        <v>2</v>
+      </c>
+      <c r="AM249">
+        <v>26</v>
+      </c>
+      <c r="AN249" t="s">
+        <v>801</v>
+      </c>
+      <c r="AO249" t="s">
+        <v>368</v>
+      </c>
+      <c r="AP249" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ249" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR249" t="s">
+        <v>802</v>
+      </c>
+      <c r="AS249" t="s">
+        <v>804</v>
+      </c>
+      <c r="AT249" t="s">
+        <v>369</v>
+      </c>
+      <c r="AU249" t="s">
+        <v>683</v>
+      </c>
+      <c r="AV249" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="250" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>20050</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>2</v>
+      </c>
+      <c r="E250">
+        <v>3</v>
+      </c>
+      <c r="I250">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K250">
+        <v>7</v>
+      </c>
+      <c r="Y250">
+        <v>3</v>
+      </c>
+      <c r="AM250">
+        <v>26</v>
+      </c>
+      <c r="AN250" t="s">
+        <v>801</v>
+      </c>
+      <c r="AO250" t="s">
+        <v>370</v>
+      </c>
+      <c r="AP250" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ250" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR250" t="s">
+        <v>803</v>
+      </c>
+      <c r="AS250" t="s">
+        <v>804</v>
+      </c>
+      <c r="AT250" t="s">
+        <v>369</v>
+      </c>
+      <c r="AU250" t="s">
+        <v>683</v>
+      </c>
+      <c r="AV250" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="251" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>20050</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <v>4</v>
+      </c>
+      <c r="I251">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K251">
+        <v>13</v>
+      </c>
+      <c r="Y251">
+        <v>3</v>
+      </c>
+      <c r="AM251">
+        <v>30</v>
+      </c>
+      <c r="AN251" t="s">
+        <v>801</v>
+      </c>
+      <c r="AO251" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP251" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ251" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR251" t="s">
+        <v>803</v>
+      </c>
+      <c r="AS251" t="s">
+        <v>804</v>
+      </c>
+      <c r="AT251" t="s">
+        <v>374</v>
+      </c>
+      <c r="AU251" t="s">
+        <v>683</v>
+      </c>
+      <c r="AV251" t="s">
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -24964,11 +25274,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE975E6E-17B1-40AE-80BD-D23A6587DC30}">
-  <dimension ref="A1:AW316"/>
+  <dimension ref="A1:AW321"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV316" sqref="A312:AV316"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV317" sqref="AV317:AV321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43998,6 +44308,301 @@
         <v>795</v>
       </c>
     </row>
+    <row r="317" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>30064</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>3</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="I317">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K317">
+        <v>13</v>
+      </c>
+      <c r="AE317">
+        <v>8</v>
+      </c>
+      <c r="AI317">
+        <v>4</v>
+      </c>
+      <c r="AM317">
+        <v>30</v>
+      </c>
+      <c r="AN317" t="s">
+        <v>796</v>
+      </c>
+      <c r="AO317" t="s">
+        <v>491</v>
+      </c>
+      <c r="AP317" t="s">
+        <v>476</v>
+      </c>
+      <c r="AQ317" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR317" t="s">
+        <v>797</v>
+      </c>
+      <c r="AS317" t="s">
+        <v>799</v>
+      </c>
+      <c r="AT317" t="s">
+        <v>313</v>
+      </c>
+      <c r="AU317" t="s">
+        <v>490</v>
+      </c>
+      <c r="AV317" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="318" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>30064</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>3</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+      <c r="I318">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K318">
+        <v>13</v>
+      </c>
+      <c r="AE318">
+        <v>8</v>
+      </c>
+      <c r="AI318">
+        <v>4</v>
+      </c>
+      <c r="AM318">
+        <v>35</v>
+      </c>
+      <c r="AN318" t="s">
+        <v>796</v>
+      </c>
+      <c r="AO318" t="s">
+        <v>492</v>
+      </c>
+      <c r="AP318" t="s">
+        <v>476</v>
+      </c>
+      <c r="AQ318" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR318" t="s">
+        <v>797</v>
+      </c>
+      <c r="AS318" t="s">
+        <v>799</v>
+      </c>
+      <c r="AT318" t="s">
+        <v>488</v>
+      </c>
+      <c r="AU318" t="s">
+        <v>490</v>
+      </c>
+      <c r="AV318" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="319" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>30064</v>
+      </c>
+      <c r="B319">
+        <v>2</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>3</v>
+      </c>
+      <c r="E319">
+        <v>2</v>
+      </c>
+      <c r="I319">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K319">
+        <v>13</v>
+      </c>
+      <c r="AE319">
+        <v>11</v>
+      </c>
+      <c r="AI319">
+        <v>4</v>
+      </c>
+      <c r="AM319">
+        <v>35</v>
+      </c>
+      <c r="AN319" t="s">
+        <v>796</v>
+      </c>
+      <c r="AO319" t="s">
+        <v>493</v>
+      </c>
+      <c r="AP319" t="s">
+        <v>668</v>
+      </c>
+      <c r="AQ319" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR319" t="s">
+        <v>797</v>
+      </c>
+      <c r="AS319" t="s">
+        <v>799</v>
+      </c>
+      <c r="AT319" t="s">
+        <v>488</v>
+      </c>
+      <c r="AU319" t="s">
+        <v>490</v>
+      </c>
+      <c r="AV319" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="320" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>30064</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>3</v>
+      </c>
+      <c r="E320">
+        <v>3</v>
+      </c>
+      <c r="I320">
+        <v>0.08</v>
+      </c>
+      <c r="K320">
+        <v>17</v>
+      </c>
+      <c r="AE320">
+        <v>11</v>
+      </c>
+      <c r="AI320">
+        <v>4</v>
+      </c>
+      <c r="AM320">
+        <v>35</v>
+      </c>
+      <c r="AN320" t="s">
+        <v>796</v>
+      </c>
+      <c r="AO320" t="s">
+        <v>494</v>
+      </c>
+      <c r="AP320" t="s">
+        <v>668</v>
+      </c>
+      <c r="AQ320" t="s">
+        <v>498</v>
+      </c>
+      <c r="AR320" t="s">
+        <v>797</v>
+      </c>
+      <c r="AS320" t="s">
+        <v>799</v>
+      </c>
+      <c r="AT320" t="s">
+        <v>488</v>
+      </c>
+      <c r="AU320" t="s">
+        <v>490</v>
+      </c>
+      <c r="AV320" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="321" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>30064</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>3</v>
+      </c>
+      <c r="E321">
+        <v>4</v>
+      </c>
+      <c r="I321">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K321">
+        <v>17</v>
+      </c>
+      <c r="AE321">
+        <v>11</v>
+      </c>
+      <c r="AI321">
+        <v>5</v>
+      </c>
+      <c r="AM321">
+        <v>40</v>
+      </c>
+      <c r="AN321" t="s">
+        <v>796</v>
+      </c>
+      <c r="AO321" t="s">
+        <v>495</v>
+      </c>
+      <c r="AP321" t="s">
+        <v>668</v>
+      </c>
+      <c r="AQ321" t="s">
+        <v>498</v>
+      </c>
+      <c r="AR321" t="s">
+        <v>798</v>
+      </c>
+      <c r="AS321" t="s">
+        <v>799</v>
+      </c>
+      <c r="AT321" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU321" t="s">
+        <v>490</v>
+      </c>
+      <c r="AV321" t="s">
+        <v>800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GakuConverter/GakuStats.xlsx
+++ b/GakuConverter/GakuStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chun\gakumas-tierlist\GakuConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77548DDA-79A1-43DC-B5E3-03BA12D946BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AB63FA-CB11-4803-9588-485A8B97D8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6509477F-BBC8-40DD-A1E6-76B0F6EEA054}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{6509477F-BBC8-40DD-A1E6-76B0F6EEA054}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6270" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6360" uniqueCount="865">
   <si>
     <t>type</t>
   </si>
@@ -2793,6 +2793,36 @@
   </si>
   <si>
     <t>When Dance is 700+, if you acquire a skill card with a Concentration effect, gain +20 Dance and recover 5 Stamina\nThrice per produce</t>
+  </si>
+  <si>
+    <t>Master and disciple training</t>
+  </si>
+  <si>
+    <t>When customizing a skill card, gain +5 Visual (6 times per produce)</t>
+  </si>
+  <si>
+    <t>When acquiring a skill card with a Motivation effect, gain +2 Visual</t>
+  </si>
+  <si>
+    <t>When acquiring a skill card with a Motivation effect, gain +3 Visual</t>
+  </si>
+  <si>
+    <t>Signature - Leaf-catching technique</t>
+  </si>
+  <si>
+    <t>Oops, that's dangerous</t>
+  </si>
+  <si>
+    <t>At the end of a class or business, gain +7 Vocal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature - Physical fitness materials? </t>
+  </si>
+  <si>
+    <t>If visual is 400 or higher at the start of special consult, visual increase + 30 \nTwice per produce</t>
+  </si>
+  <si>
+    <t>When acquiring a skill card with a motivation  effect, if vocals are 400 or above, vocals increase by  +30\nStamina Recovery  5\nTwice during production</t>
   </si>
 </sst>
 </file>
@@ -3188,7 +3218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101E7E87-7AB1-4408-A6FA-76582E3A437E}">
   <dimension ref="A1:AX61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="O7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
@@ -10312,11 +10342,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D5332D-C0D6-4331-A5CD-43684D01253E}">
-  <dimension ref="A1:AX266"/>
+  <dimension ref="A1:AX271"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView topLeftCell="AQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AX267" sqref="AX267:AX271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26295,6 +26325,301 @@
         <v>822</v>
       </c>
     </row>
+    <row r="267" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>20054</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K267">
+        <v>7</v>
+      </c>
+      <c r="AB267">
+        <v>2</v>
+      </c>
+      <c r="AM267">
+        <v>5</v>
+      </c>
+      <c r="AO267">
+        <v>22</v>
+      </c>
+      <c r="AP267" t="s">
+        <v>855</v>
+      </c>
+      <c r="AQ267" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR267" t="s">
+        <v>856</v>
+      </c>
+      <c r="AS267" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT267" t="s">
+        <v>857</v>
+      </c>
+      <c r="AU267" t="s">
+        <v>859</v>
+      </c>
+      <c r="AV267" t="s">
+        <v>311</v>
+      </c>
+      <c r="AW267" t="s">
+        <v>683</v>
+      </c>
+      <c r="AX267" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="268" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>20054</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="I268">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K268">
+        <v>7</v>
+      </c>
+      <c r="AB268">
+        <v>2</v>
+      </c>
+      <c r="AM268">
+        <v>8</v>
+      </c>
+      <c r="AO268">
+        <v>22</v>
+      </c>
+      <c r="AP268" t="s">
+        <v>855</v>
+      </c>
+      <c r="AQ268" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR268" t="s">
+        <v>790</v>
+      </c>
+      <c r="AS268" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT268" t="s">
+        <v>857</v>
+      </c>
+      <c r="AU268" t="s">
+        <v>859</v>
+      </c>
+      <c r="AV268" t="s">
+        <v>311</v>
+      </c>
+      <c r="AW268" t="s">
+        <v>683</v>
+      </c>
+      <c r="AX268" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="269" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>20054</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+      <c r="E269">
+        <v>2</v>
+      </c>
+      <c r="I269">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K269">
+        <v>7</v>
+      </c>
+      <c r="AB269">
+        <v>2</v>
+      </c>
+      <c r="AM269">
+        <v>8</v>
+      </c>
+      <c r="AO269">
+        <v>26</v>
+      </c>
+      <c r="AP269" t="s">
+        <v>855</v>
+      </c>
+      <c r="AQ269" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR269" t="s">
+        <v>790</v>
+      </c>
+      <c r="AS269" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT269" t="s">
+        <v>857</v>
+      </c>
+      <c r="AU269" t="s">
+        <v>859</v>
+      </c>
+      <c r="AV269" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW269" t="s">
+        <v>683</v>
+      </c>
+      <c r="AX269" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="270" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>20054</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+      <c r="E270">
+        <v>3</v>
+      </c>
+      <c r="I270">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K270">
+        <v>7</v>
+      </c>
+      <c r="AB270">
+        <v>3</v>
+      </c>
+      <c r="AM270">
+        <v>8</v>
+      </c>
+      <c r="AO270">
+        <v>26</v>
+      </c>
+      <c r="AP270" t="s">
+        <v>855</v>
+      </c>
+      <c r="AQ270" t="s">
+        <v>303</v>
+      </c>
+      <c r="AR270" t="s">
+        <v>790</v>
+      </c>
+      <c r="AS270" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT270" t="s">
+        <v>858</v>
+      </c>
+      <c r="AU270" t="s">
+        <v>859</v>
+      </c>
+      <c r="AV270" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW270" t="s">
+        <v>683</v>
+      </c>
+      <c r="AX270" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="271" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>20054</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <v>4</v>
+      </c>
+      <c r="I271">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K271">
+        <v>13</v>
+      </c>
+      <c r="AB271">
+        <v>3</v>
+      </c>
+      <c r="AM271">
+        <v>8</v>
+      </c>
+      <c r="AO271">
+        <v>30</v>
+      </c>
+      <c r="AP271" t="s">
+        <v>855</v>
+      </c>
+      <c r="AQ271" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR271" t="s">
+        <v>790</v>
+      </c>
+      <c r="AS271" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT271" t="s">
+        <v>858</v>
+      </c>
+      <c r="AU271" t="s">
+        <v>859</v>
+      </c>
+      <c r="AV271" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW271" t="s">
+        <v>683</v>
+      </c>
+      <c r="AX271" t="s">
+        <v>863</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26303,11 +26628,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE975E6E-17B1-40AE-80BD-D23A6587DC30}">
-  <dimension ref="A1:AY356"/>
+  <dimension ref="A1:AY361"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AX357" sqref="AX357:AX361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47675,6 +48000,301 @@
         <v>854</v>
       </c>
     </row>
+    <row r="357" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>30072</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>2</v>
+      </c>
+      <c r="D357">
+        <v>3</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K357">
+        <v>13</v>
+      </c>
+      <c r="N357">
+        <v>12</v>
+      </c>
+      <c r="Q357">
+        <v>5</v>
+      </c>
+      <c r="AO357">
+        <v>30</v>
+      </c>
+      <c r="AP357" t="s">
+        <v>860</v>
+      </c>
+      <c r="AQ357" t="s">
+        <v>514</v>
+      </c>
+      <c r="AR357" t="s">
+        <v>767</v>
+      </c>
+      <c r="AS357" t="s">
+        <v>327</v>
+      </c>
+      <c r="AT357" t="s">
+        <v>618</v>
+      </c>
+      <c r="AU357" t="s">
+        <v>862</v>
+      </c>
+      <c r="AV357" t="s">
+        <v>316</v>
+      </c>
+      <c r="AW357" t="s">
+        <v>490</v>
+      </c>
+      <c r="AX357" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="358" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>30072</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+      <c r="D358">
+        <v>3</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+      <c r="I358">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K358">
+        <v>13</v>
+      </c>
+      <c r="N358">
+        <v>12</v>
+      </c>
+      <c r="Q358">
+        <v>5</v>
+      </c>
+      <c r="AO358">
+        <v>35</v>
+      </c>
+      <c r="AP358" t="s">
+        <v>860</v>
+      </c>
+      <c r="AQ358" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR358" t="s">
+        <v>767</v>
+      </c>
+      <c r="AS358" t="s">
+        <v>327</v>
+      </c>
+      <c r="AT358" t="s">
+        <v>618</v>
+      </c>
+      <c r="AU358" t="s">
+        <v>862</v>
+      </c>
+      <c r="AV358" t="s">
+        <v>522</v>
+      </c>
+      <c r="AW358" t="s">
+        <v>490</v>
+      </c>
+      <c r="AX358" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="359" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>30072</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+      <c r="D359">
+        <v>3</v>
+      </c>
+      <c r="E359">
+        <v>2</v>
+      </c>
+      <c r="I359">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K359">
+        <v>13</v>
+      </c>
+      <c r="N359">
+        <v>12</v>
+      </c>
+      <c r="Q359">
+        <v>7</v>
+      </c>
+      <c r="AO359">
+        <v>35</v>
+      </c>
+      <c r="AP359" t="s">
+        <v>860</v>
+      </c>
+      <c r="AQ359" t="s">
+        <v>516</v>
+      </c>
+      <c r="AR359" t="s">
+        <v>861</v>
+      </c>
+      <c r="AS359" t="s">
+        <v>327</v>
+      </c>
+      <c r="AT359" t="s">
+        <v>618</v>
+      </c>
+      <c r="AU359" t="s">
+        <v>862</v>
+      </c>
+      <c r="AV359" t="s">
+        <v>522</v>
+      </c>
+      <c r="AW359" t="s">
+        <v>490</v>
+      </c>
+      <c r="AX359" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="360" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>30072</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>2</v>
+      </c>
+      <c r="D360">
+        <v>3</v>
+      </c>
+      <c r="E360">
+        <v>3</v>
+      </c>
+      <c r="I360">
+        <v>0.08</v>
+      </c>
+      <c r="K360">
+        <v>17</v>
+      </c>
+      <c r="N360">
+        <v>12</v>
+      </c>
+      <c r="Q360">
+        <v>7</v>
+      </c>
+      <c r="AO360">
+        <v>35</v>
+      </c>
+      <c r="AP360" t="s">
+        <v>860</v>
+      </c>
+      <c r="AQ360" t="s">
+        <v>517</v>
+      </c>
+      <c r="AR360" t="s">
+        <v>861</v>
+      </c>
+      <c r="AS360" t="s">
+        <v>550</v>
+      </c>
+      <c r="AT360" t="s">
+        <v>618</v>
+      </c>
+      <c r="AU360" t="s">
+        <v>862</v>
+      </c>
+      <c r="AV360" t="s">
+        <v>522</v>
+      </c>
+      <c r="AW360" t="s">
+        <v>490</v>
+      </c>
+      <c r="AX360" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="361" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>30072</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>2</v>
+      </c>
+      <c r="D361">
+        <v>3</v>
+      </c>
+      <c r="E361">
+        <v>4</v>
+      </c>
+      <c r="I361">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K361">
+        <v>17</v>
+      </c>
+      <c r="N361">
+        <v>17</v>
+      </c>
+      <c r="Q361">
+        <v>7</v>
+      </c>
+      <c r="AO361">
+        <v>40</v>
+      </c>
+      <c r="AP361" t="s">
+        <v>860</v>
+      </c>
+      <c r="AQ361" t="s">
+        <v>518</v>
+      </c>
+      <c r="AR361" t="s">
+        <v>861</v>
+      </c>
+      <c r="AS361" t="s">
+        <v>550</v>
+      </c>
+      <c r="AT361" t="s">
+        <v>619</v>
+      </c>
+      <c r="AU361" t="s">
+        <v>862</v>
+      </c>
+      <c r="AV361" t="s">
+        <v>523</v>
+      </c>
+      <c r="AW361" t="s">
+        <v>490</v>
+      </c>
+      <c r="AX361" t="s">
+        <v>864</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GakuConverter/GakuStats.xlsx
+++ b/GakuConverter/GakuStats.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chun\gakumas-tierlist\GakuConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227AD012-F267-494E-9BC9-F137784B41AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB982F16-2D50-414B-A79D-DEE87E108C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="1" r:id="rId1"/>
     <sheet name="SR" sheetId="2" r:id="rId2"/>
     <sheet name="SSR" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7404" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7949" uniqueCount="1040">
   <si>
     <t>id</t>
   </si>
@@ -3961,9 +3962,6 @@
     <t>Signature - A state of selflessness</t>
   </si>
   <si>
-    <t xml:space="preserve">At the end of class or business, if your dance score is 700 or higher, you will receive the first star whey protein. P points +  40\n(Twice during production) </t>
-  </si>
-  <si>
     <t>Gain +23 Visual at the start of the produce</t>
   </si>
   <si>
@@ -3989,6 +3987,153 @@
   </si>
   <si>
     <t>Gain +31 Dance at the start of the produce</t>
+  </si>
+  <si>
+    <t>It's bubbling and smells good</t>
+  </si>
+  <si>
+    <t>When replacing a skill card, gain +8 Dance (thrice per produce)</t>
+  </si>
+  <si>
+    <t>When Activity provision or Present is selected, gain +6 Vocal</t>
+  </si>
+  <si>
+    <t>When Activity provision or Present is selected, gain +11 Vocal</t>
+  </si>
+  <si>
+    <t>Signature - Would you like to try it?</t>
+  </si>
+  <si>
+    <t>Cost: -5 (-3)\nMove 1 random Drowsiness card from the deck or discard pile to the removed pile\nGain +4 Impression\nGain +3 Motivation</t>
+  </si>
+  <si>
+    <t>Two smiling sunshine in full bloom</t>
+  </si>
+  <si>
+    <t>At the start of a Special Guidance gain +9 Dance (thrice per produce)</t>
+  </si>
+  <si>
+    <t>At the start of a Special Guidance gain +18 Dance (thrice per produce)</t>
+  </si>
+  <si>
+    <t>At the start of a Special Guidance gain +9 Visual (thrice per produce)</t>
+  </si>
+  <si>
+    <t>At the start of a Special Guidance gain +18 Visual (thrice per produce)</t>
+  </si>
+  <si>
+    <t>When acquiring a P Item, gain +6 Dance (6 times per produce)</t>
+  </si>
+  <si>
+    <t>When acquiring a P Item, gain +11 Dance (6 times per produce)</t>
+  </si>
+  <si>
+    <t>Signature - Look-alike Woof Woof</t>
+  </si>
+  <si>
+    <t>When acquiring a skill card with a Preservation effect, if Dance is 700+, gain +20 Dance and receive a random P Drink\nTwice per produce</t>
+  </si>
+  <si>
+    <t>Fashion and makeup</t>
+  </si>
+  <si>
+    <t>At the end of an outing gain +8 Vocal</t>
+  </si>
+  <si>
+    <t>At the end of an outing gain +8 Dance</t>
+  </si>
+  <si>
+    <t>At the end of an outing gain +8 Visual</t>
+  </si>
+  <si>
+    <t>Signature - Pitashi Collection</t>
+  </si>
+  <si>
+    <t>Visual lesson / Visual turn only\nWhen using an Active (A) card, if Good Shape is 3+, gain +2 Concentration and +4 Parameters\nOnce per Lesson</t>
+  </si>
+  <si>
+    <t>At the end of class or business, if your dance score is 700 or higher, you will receive the first star whey protein. P points +  40\nTwice during production</t>
+  </si>
+  <si>
+    <t>She's openly slacking off!?</t>
+  </si>
+  <si>
+    <t>When you acquire a skill card (SSR), gain +6 Vocal</t>
+  </si>
+  <si>
+    <t>When you acquire a skill card (SSR), gain +3 Visual</t>
+  </si>
+  <si>
+    <t>When you acquire a skill card (SSR), gain +3 Dance</t>
+  </si>
+  <si>
+    <t>Signature - Adorable delinquent move</t>
+  </si>
+  <si>
+    <t>Cost: -3 (-2) Motivation\nGain +3 (+4) Impression and +1 Card Use\nNext turn, draw 1 additional card, if Motivation is 6+, draw 2 cards\nOnce per lesson (cannot be duplicated)</t>
+  </si>
+  <si>
+    <t>A Temari recital, right?</t>
+  </si>
+  <si>
+    <t>When acquiring a Mental (M) card, gain +1 Dance</t>
+  </si>
+  <si>
+    <t>Signature - Cold Sky Recital</t>
+  </si>
+  <si>
+    <t>Cost: -6 (-5)\nGain +7 Energy, +1 (+2) Full Power Points\nFrom then on, up to 3 times, when using a Mental (M) card in Full Power, gain +2 Full Power Points\nOnce per lesson (cannot be duplicated)</t>
+  </si>
+  <si>
+    <t>I found it.</t>
+  </si>
+  <si>
+    <t>When Activity provision or Present is selected, gain +9 Vocal</t>
+  </si>
+  <si>
+    <t>When Activity provision or Present is selected, gain +9 Dance</t>
+  </si>
+  <si>
+    <t>When Activity provision or Present is selected, gain +9 Visual</t>
+  </si>
+  <si>
+    <t>When acquiring a skill card with a Energy effect, gain +2 Vocal</t>
+  </si>
+  <si>
+    <t>Signature - Where is the lost child?</t>
+  </si>
+  <si>
+    <t>Vocal lesson / Vocal turn only\nAt the start of the turn, if stamina is below 50%, gain +2 Motivation and +2 turns of Stamina Consumption Halved\nOnce per lesson (cannot be duplicated)</t>
+  </si>
+  <si>
+    <t>It's a treasure chest of memories, isn't it?</t>
+  </si>
+  <si>
+    <t>At the end of an exam or an audition, gain +22 Vocal (only once per produce)</t>
+  </si>
+  <si>
+    <t>At the end of an exam or an audition, gain +22 Visual (only once per produce)</t>
+  </si>
+  <si>
+    <t>Signature - Friend Memories</t>
+  </si>
+  <si>
+    <t>Cost: -2 Motivation\nAfter 4 turns, increase Paramters by 120% of Impression\nIf Motivation is 3+, for the next 3 turns, at the end of the turn, gain +2 (+3) Impression\nOnce per lesson (cannot be duplicated)</t>
+  </si>
+  <si>
+    <t>When replacing a skill card, gain +8 Vocal (thrice per produce)</t>
+  </si>
+  <si>
+    <t>When replacing a skill card, gain +16 Vocal (thrice per produce)</t>
+  </si>
+  <si>
+    <t>Proof of friendship</t>
+  </si>
+  <si>
+    <t>Signature - First fight?</t>
+  </si>
+  <si>
+    <t>When acquiring a skill card with a Concentration effect, if Visual is 400+, gain +15 Visual and +20 P Points\nTwice per produce</t>
   </si>
 </sst>
 </file>
@@ -4055,7 +4200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4066,6 +4211,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4549,7 +4695,7 @@
         <v>53</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>54</v>
@@ -4888,7 +5034,7 @@
         <v>53</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>54</v>
@@ -5001,7 +5147,7 @@
         <v>53</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>54</v>
@@ -5118,7 +5264,7 @@
         <v>68</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AU7" s="1" t="s">
         <v>54</v>
@@ -5469,7 +5615,7 @@
         <v>68</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AU10" s="1" t="s">
         <v>54</v>
@@ -5586,7 +5732,7 @@
         <v>68</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>54</v>
@@ -5703,7 +5849,7 @@
         <v>79</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AU12" s="1" t="s">
         <v>54</v>
@@ -6054,7 +6200,7 @@
         <v>79</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AU15" s="1" t="s">
         <v>54</v>
@@ -6171,7 +6317,7 @@
         <v>79</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AU16" s="1" t="s">
         <v>54</v>
@@ -6287,7 +6433,7 @@
         <v>90</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AU17" s="1" t="s">
         <v>54</v>
@@ -6635,7 +6781,7 @@
         <v>90</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AU20" s="1" t="s">
         <v>54</v>
@@ -6751,7 +6897,7 @@
         <v>90</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AU21" s="1" t="s">
         <v>54</v>
@@ -6867,7 +7013,7 @@
         <v>95</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AU22" s="1" t="s">
         <v>54</v>
@@ -7215,7 +7361,7 @@
         <v>95</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AU25" s="1" t="s">
         <v>54</v>
@@ -7331,7 +7477,7 @@
         <v>95</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AU26" s="1" t="s">
         <v>54</v>
@@ -7447,7 +7593,7 @@
         <v>100</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AU27" s="1" t="s">
         <v>54</v>
@@ -7795,7 +7941,7 @@
         <v>100</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AU30" s="1" t="s">
         <v>54</v>
@@ -7911,7 +8057,7 @@
         <v>100</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AU31" s="1" t="s">
         <v>54</v>
@@ -12654,9 +12800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR1" sqref="AR1:AR1048576"/>
+    <sheetView topLeftCell="AW1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A331" sqref="A317:BA331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -31595,26 +31741,896 @@
         <v>936</v>
       </c>
     </row>
-    <row r="317" spans="1:53" ht="15.75" customHeight="1"/>
-    <row r="318" spans="1:53" ht="15.75" customHeight="1"/>
-    <row r="319" spans="1:53" ht="15.75" customHeight="1"/>
-    <row r="320" spans="1:53" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="317" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A317" s="2">
+        <v>20064</v>
+      </c>
+      <c r="B317" s="2">
+        <v>0</v>
+      </c>
+      <c r="C317" s="2">
+        <v>2</v>
+      </c>
+      <c r="D317" s="2">
+        <v>2</v>
+      </c>
+      <c r="E317" s="1">
+        <v>0</v>
+      </c>
+      <c r="G317" s="2">
+        <v>37</v>
+      </c>
+      <c r="L317">
+        <v>8</v>
+      </c>
+      <c r="O317" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL317">
+        <v>8</v>
+      </c>
+      <c r="AR317" s="1">
+        <v>22</v>
+      </c>
+      <c r="AS317" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="AT317" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="AU317" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AV317" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="AW317" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AX317" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="AY317" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ317" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA317" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="318" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A318" s="2">
+        <v>20064</v>
+      </c>
+      <c r="B318" s="2">
+        <v>0</v>
+      </c>
+      <c r="C318" s="2">
+        <v>2</v>
+      </c>
+      <c r="D318" s="2">
+        <v>2</v>
+      </c>
+      <c r="E318" s="1">
+        <v>1</v>
+      </c>
+      <c r="G318" s="2">
+        <v>40</v>
+      </c>
+      <c r="L318">
+        <v>15</v>
+      </c>
+      <c r="O318" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL318">
+        <v>8</v>
+      </c>
+      <c r="AR318" s="1">
+        <v>22</v>
+      </c>
+      <c r="AS318" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="AT318" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="AU318" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AV318" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="AW318" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AX318" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="AY318" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ318" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA318" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="319" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A319" s="2">
+        <v>20064</v>
+      </c>
+      <c r="B319" s="2">
+        <v>0</v>
+      </c>
+      <c r="C319" s="2">
+        <v>2</v>
+      </c>
+      <c r="D319" s="2">
+        <v>2</v>
+      </c>
+      <c r="E319" s="1">
+        <v>2</v>
+      </c>
+      <c r="G319" s="2">
+        <v>43</v>
+      </c>
+      <c r="L319">
+        <v>15</v>
+      </c>
+      <c r="O319" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL319">
+        <v>8</v>
+      </c>
+      <c r="AR319" s="1">
+        <v>26</v>
+      </c>
+      <c r="AS319" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="AT319" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="AU319" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AV319" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="AW319" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AX319" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="AY319" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ319" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA319" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="320" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A320" s="2">
+        <v>20064</v>
+      </c>
+      <c r="B320" s="2">
+        <v>0</v>
+      </c>
+      <c r="C320" s="2">
+        <v>2</v>
+      </c>
+      <c r="D320" s="2">
+        <v>2</v>
+      </c>
+      <c r="E320" s="1">
+        <v>3</v>
+      </c>
+      <c r="G320" s="2">
+        <v>46</v>
+      </c>
+      <c r="L320">
+        <v>15</v>
+      </c>
+      <c r="O320" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL320">
+        <v>16</v>
+      </c>
+      <c r="AR320" s="1">
+        <v>26</v>
+      </c>
+      <c r="AS320" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="AT320" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="AU320" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AV320" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="AW320" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AX320" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="AY320" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ320" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA320" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="321" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A321" s="2">
+        <v>20064</v>
+      </c>
+      <c r="B321" s="2">
+        <v>0</v>
+      </c>
+      <c r="C321" s="2">
+        <v>2</v>
+      </c>
+      <c r="D321" s="2">
+        <v>2</v>
+      </c>
+      <c r="E321" s="1">
+        <v>4</v>
+      </c>
+      <c r="G321" s="2">
+        <v>49</v>
+      </c>
+      <c r="L321">
+        <v>15</v>
+      </c>
+      <c r="O321" s="1">
+        <v>11</v>
+      </c>
+      <c r="AL321">
+        <v>16</v>
+      </c>
+      <c r="AR321" s="1">
+        <v>30</v>
+      </c>
+      <c r="AS321" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="AT321" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="AU321" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AV321" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="AW321" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AX321" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="AY321" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ321" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA321" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="322" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A322" s="2">
+        <v>20065</v>
+      </c>
+      <c r="B322" s="2">
+        <v>1</v>
+      </c>
+      <c r="C322" s="2">
+        <v>3</v>
+      </c>
+      <c r="D322" s="2">
+        <v>2</v>
+      </c>
+      <c r="E322" s="1">
+        <v>0</v>
+      </c>
+      <c r="G322" s="2">
+        <v>37</v>
+      </c>
+      <c r="S322" s="2">
+        <v>9</v>
+      </c>
+      <c r="AO322" s="2">
+        <v>6</v>
+      </c>
+      <c r="AQ322" s="1">
+        <v>9</v>
+      </c>
+      <c r="AR322" s="1">
+        <v>22</v>
+      </c>
+      <c r="AS322" t="s">
+        <v>997</v>
+      </c>
+      <c r="AT322" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="AU322" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="AV322" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW322" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AX322" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AY322" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ322" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA322" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="323" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A323" s="2">
+        <v>20065</v>
+      </c>
+      <c r="B323" s="2">
+        <v>1</v>
+      </c>
+      <c r="C323" s="2">
+        <v>3</v>
+      </c>
+      <c r="D323" s="2">
+        <v>2</v>
+      </c>
+      <c r="E323" s="1">
+        <v>1</v>
+      </c>
+      <c r="G323" s="2">
+        <v>40</v>
+      </c>
+      <c r="S323" s="2">
+        <v>18</v>
+      </c>
+      <c r="AO323" s="2">
+        <v>6</v>
+      </c>
+      <c r="AQ323" s="1">
+        <v>9</v>
+      </c>
+      <c r="AR323" s="1">
+        <v>22</v>
+      </c>
+      <c r="AS323" t="s">
+        <v>997</v>
+      </c>
+      <c r="AT323" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="AU323" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="AV323" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW323" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AX323" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AY323" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ323" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA323" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="324" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A324" s="2">
+        <v>20065</v>
+      </c>
+      <c r="B324" s="2">
+        <v>1</v>
+      </c>
+      <c r="C324" s="2">
+        <v>3</v>
+      </c>
+      <c r="D324" s="2">
+        <v>2</v>
+      </c>
+      <c r="E324" s="1">
+        <v>2</v>
+      </c>
+      <c r="G324" s="2">
+        <v>43</v>
+      </c>
+      <c r="S324" s="2">
+        <v>18</v>
+      </c>
+      <c r="AO324" s="2">
+        <v>6</v>
+      </c>
+      <c r="AQ324" s="1">
+        <v>9</v>
+      </c>
+      <c r="AR324" s="1">
+        <v>26</v>
+      </c>
+      <c r="AS324" t="s">
+        <v>997</v>
+      </c>
+      <c r="AT324" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="AU324" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="AV324" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW324" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AX324" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AY324" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ324" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA324" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="325" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A325" s="2">
+        <v>20065</v>
+      </c>
+      <c r="B325" s="2">
+        <v>1</v>
+      </c>
+      <c r="C325" s="2">
+        <v>3</v>
+      </c>
+      <c r="D325" s="2">
+        <v>2</v>
+      </c>
+      <c r="E325" s="1">
+        <v>3</v>
+      </c>
+      <c r="G325" s="2">
+        <v>46</v>
+      </c>
+      <c r="S325" s="2">
+        <v>18</v>
+      </c>
+      <c r="AO325" s="2">
+        <v>11</v>
+      </c>
+      <c r="AQ325" s="1">
+        <v>9</v>
+      </c>
+      <c r="AR325" s="1">
+        <v>26</v>
+      </c>
+      <c r="AS325" t="s">
+        <v>997</v>
+      </c>
+      <c r="AT325" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="AU325" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="AV325" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW325" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AX325" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AY325" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ325" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA325" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="326" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A326" s="2">
+        <v>20065</v>
+      </c>
+      <c r="B326" s="2">
+        <v>1</v>
+      </c>
+      <c r="C326" s="2">
+        <v>3</v>
+      </c>
+      <c r="D326" s="2">
+        <v>2</v>
+      </c>
+      <c r="E326" s="1">
+        <v>4</v>
+      </c>
+      <c r="G326" s="2">
+        <v>49</v>
+      </c>
+      <c r="S326" s="2">
+        <v>18</v>
+      </c>
+      <c r="AO326" s="2">
+        <v>11</v>
+      </c>
+      <c r="AQ326" s="1">
+        <v>17</v>
+      </c>
+      <c r="AR326" s="1">
+        <v>30</v>
+      </c>
+      <c r="AS326" t="s">
+        <v>997</v>
+      </c>
+      <c r="AT326" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="AU326" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="AV326" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW326" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AX326" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AY326" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ326" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA326" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="327" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A327" s="2">
+        <v>20066</v>
+      </c>
+      <c r="B327" s="2">
+        <v>2</v>
+      </c>
+      <c r="C327" s="2">
+        <v>1</v>
+      </c>
+      <c r="D327" s="2">
+        <v>2</v>
+      </c>
+      <c r="E327" s="1">
+        <v>0</v>
+      </c>
+      <c r="G327" s="2">
+        <v>37</v>
+      </c>
+      <c r="S327" s="2">
+        <v>9</v>
+      </c>
+      <c r="T327">
+        <v>2</v>
+      </c>
+      <c r="AO327" s="2">
+        <v>6</v>
+      </c>
+      <c r="AR327" s="1">
+        <v>22</v>
+      </c>
+      <c r="AS327" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AT327" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="AU327" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AV327" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW327" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AX327" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AY327" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ327" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA327" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="328" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A328" s="2">
+        <v>20066</v>
+      </c>
+      <c r="B328" s="2">
+        <v>2</v>
+      </c>
+      <c r="C328" s="2">
+        <v>1</v>
+      </c>
+      <c r="D328" s="2">
+        <v>2</v>
+      </c>
+      <c r="E328" s="1">
+        <v>1</v>
+      </c>
+      <c r="G328" s="2">
+        <v>40</v>
+      </c>
+      <c r="S328" s="2">
+        <v>9</v>
+      </c>
+      <c r="T328">
+        <v>2</v>
+      </c>
+      <c r="AO328" s="2">
+        <v>11</v>
+      </c>
+      <c r="AR328" s="1">
+        <v>22</v>
+      </c>
+      <c r="AS328" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AT328" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="AU328" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="AV328" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW328" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AX328" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AY328" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ328" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA328" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="329" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A329" s="2">
+        <v>20066</v>
+      </c>
+      <c r="B329" s="2">
+        <v>2</v>
+      </c>
+      <c r="C329" s="2">
+        <v>1</v>
+      </c>
+      <c r="D329" s="2">
+        <v>2</v>
+      </c>
+      <c r="E329" s="1">
+        <v>2</v>
+      </c>
+      <c r="G329" s="2">
+        <v>43</v>
+      </c>
+      <c r="S329" s="2">
+        <v>9</v>
+      </c>
+      <c r="T329">
+        <v>2</v>
+      </c>
+      <c r="AO329" s="2">
+        <v>11</v>
+      </c>
+      <c r="AR329" s="1">
+        <v>26</v>
+      </c>
+      <c r="AS329" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AT329" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="AU329" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="AV329" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW329" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AX329" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AY329" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ329" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA329" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="330" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A330" s="2">
+        <v>20066</v>
+      </c>
+      <c r="B330" s="2">
+        <v>2</v>
+      </c>
+      <c r="C330" s="2">
+        <v>1</v>
+      </c>
+      <c r="D330" s="2">
+        <v>2</v>
+      </c>
+      <c r="E330" s="1">
+        <v>3</v>
+      </c>
+      <c r="G330" s="2">
+        <v>46</v>
+      </c>
+      <c r="S330" s="2">
+        <v>18</v>
+      </c>
+      <c r="T330">
+        <v>2</v>
+      </c>
+      <c r="AO330" s="2">
+        <v>11</v>
+      </c>
+      <c r="AR330" s="1">
+        <v>26</v>
+      </c>
+      <c r="AS330" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AT330" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="AU330" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="AV330" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW330" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AX330" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AY330" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ330" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA330" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="331" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A331" s="2">
+        <v>20066</v>
+      </c>
+      <c r="B331" s="2">
+        <v>2</v>
+      </c>
+      <c r="C331" s="2">
+        <v>1</v>
+      </c>
+      <c r="D331" s="2">
+        <v>2</v>
+      </c>
+      <c r="E331" s="1">
+        <v>4</v>
+      </c>
+      <c r="G331" s="2">
+        <v>49</v>
+      </c>
+      <c r="S331" s="2">
+        <v>18</v>
+      </c>
+      <c r="T331">
+        <v>3</v>
+      </c>
+      <c r="AO331" s="2">
+        <v>11</v>
+      </c>
+      <c r="AR331" s="1">
+        <v>30</v>
+      </c>
+      <c r="AS331" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AT331" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="AU331" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="AV331" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AW331" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AX331" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AY331" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ331" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA331" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="332" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="333" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="334" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="335" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="336" spans="1:53" ht="15.75" customHeight="1"/>
     <row r="337" ht="15.75" customHeight="1"/>
     <row r="338" ht="15.75" customHeight="1"/>
     <row r="339" ht="15.75" customHeight="1"/>
@@ -32289,9 +33305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:Q426"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T420" sqref="T420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -32309,7 +33325,7 @@
     <col min="48" max="48" width="77" customWidth="1"/>
     <col min="49" max="49" width="75.125" customWidth="1"/>
     <col min="50" max="50" width="51.125" customWidth="1"/>
-    <col min="51" max="51" width="24.25" customWidth="1"/>
+    <col min="51" max="51" width="16.75" customWidth="1"/>
     <col min="52" max="52" width="19.75" customWidth="1"/>
     <col min="53" max="53" width="237.875" customWidth="1"/>
     <col min="54" max="54" width="8.625" customWidth="1"/>
@@ -57518,7 +58534,7 @@
         <v>493</v>
       </c>
       <c r="BA422" s="7" t="s">
-        <v>982</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="423" spans="1:53" ht="15.75" customHeight="1">
@@ -57577,7 +58593,7 @@
         <v>493</v>
       </c>
       <c r="BA423" s="7" t="s">
-        <v>982</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="424" spans="1:53" ht="15.75" customHeight="1">
@@ -57636,7 +58652,7 @@
         <v>493</v>
       </c>
       <c r="BA424" s="7" t="s">
-        <v>982</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="425" spans="1:53" ht="15.75" customHeight="1">
@@ -57695,7 +58711,7 @@
         <v>493</v>
       </c>
       <c r="BA425" s="7" t="s">
-        <v>982</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="426" spans="1:53" ht="15.75" customHeight="1">
@@ -57754,47 +58770,1467 @@
         <v>493</v>
       </c>
       <c r="BA426" s="7" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="427" spans="1:53" ht="15.75" customHeight="1"/>
-    <row r="428" spans="1:53" ht="15.75" customHeight="1"/>
-    <row r="429" spans="1:53" ht="15.75" customHeight="1"/>
-    <row r="430" spans="1:53" ht="15.75" customHeight="1"/>
-    <row r="431" spans="1:53" ht="15.75" customHeight="1"/>
-    <row r="432" spans="1:53" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="427" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A427" s="2">
+        <v>30086</v>
+      </c>
+      <c r="B427" s="2">
+        <v>2</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427" s="2">
+        <v>3</v>
+      </c>
+      <c r="E427" s="1">
+        <v>0</v>
+      </c>
+      <c r="I427" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="P427">
+        <v>8</v>
+      </c>
+      <c r="AQ427">
+        <v>11</v>
+      </c>
+      <c r="AR427" s="1">
+        <v>30</v>
+      </c>
+      <c r="AS427" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AT427" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AU427" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="AV427" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AW427" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX427" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AY427" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ427" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA427" s="8" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="428" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A428" s="2">
+        <v>30086</v>
+      </c>
+      <c r="B428" s="2">
+        <v>2</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428" s="2">
+        <v>3</v>
+      </c>
+      <c r="E428" s="1">
+        <v>1</v>
+      </c>
+      <c r="I428" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P428">
+        <v>8</v>
+      </c>
+      <c r="AQ428">
+        <v>11</v>
+      </c>
+      <c r="AR428" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS428" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AT428" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AU428" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="AV428" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AW428" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX428" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AY428" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AZ428" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA428" s="8" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="429" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A429" s="2">
+        <v>30086</v>
+      </c>
+      <c r="B429" s="2">
+        <v>2</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429" s="2">
+        <v>3</v>
+      </c>
+      <c r="E429" s="1">
+        <v>2</v>
+      </c>
+      <c r="I429" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P429">
+        <v>8</v>
+      </c>
+      <c r="AQ429">
+        <v>11</v>
+      </c>
+      <c r="AR429" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS429" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AT429" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AU429" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV429" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AW429" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX429" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AY429" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AZ429" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA429" s="8" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="430" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A430" s="2">
+        <v>30086</v>
+      </c>
+      <c r="B430" s="2">
+        <v>2</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" s="2">
+        <v>3</v>
+      </c>
+      <c r="E430" s="1">
+        <v>3</v>
+      </c>
+      <c r="I430" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="P430">
+        <v>8</v>
+      </c>
+      <c r="AQ430">
+        <v>17</v>
+      </c>
+      <c r="AR430" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS430" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AT430" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AU430" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV430" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AW430" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX430" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AY430" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AZ430" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA430" s="8" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="431" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A431" s="2">
+        <v>30086</v>
+      </c>
+      <c r="B431" s="2">
+        <v>2</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431" s="2">
+        <v>3</v>
+      </c>
+      <c r="E431" s="1">
+        <v>4</v>
+      </c>
+      <c r="I431" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="P431">
+        <v>11</v>
+      </c>
+      <c r="AQ431">
+        <v>17</v>
+      </c>
+      <c r="AR431" s="1">
+        <v>40</v>
+      </c>
+      <c r="AS431" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AT431" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="AU431" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV431" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="AW431" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX431" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AY431" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AZ431" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA431" s="8" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="432" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A432" s="2">
+        <v>30087</v>
+      </c>
+      <c r="B432" s="2">
+        <v>0</v>
+      </c>
+      <c r="C432">
+        <v>2</v>
+      </c>
+      <c r="D432" s="2">
+        <v>3</v>
+      </c>
+      <c r="E432" s="1">
+        <v>0</v>
+      </c>
+      <c r="F432" s="1">
+        <v>21</v>
+      </c>
+      <c r="G432" s="1">
+        <v>52</v>
+      </c>
+      <c r="X432" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC432">
+        <v>3</v>
+      </c>
+      <c r="AR432" s="1">
+        <v>30</v>
+      </c>
+      <c r="AS432" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AT432" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="AU432" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV432" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="AW432" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AX432" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AY432" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ432" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA432" s="8" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="433" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A433" s="2">
+        <v>30087</v>
+      </c>
+      <c r="B433" s="2">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+      <c r="D433" s="2">
+        <v>3</v>
+      </c>
+      <c r="E433" s="1">
+        <v>1</v>
+      </c>
+      <c r="F433" s="1">
+        <v>21</v>
+      </c>
+      <c r="G433" s="1">
+        <v>55</v>
+      </c>
+      <c r="X433" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC433">
+        <v>3</v>
+      </c>
+      <c r="AR433" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS433" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AT433" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="AU433" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV433" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="AW433" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AX433" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AY433" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AZ433" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA433" s="8" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="434" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A434" s="2">
+        <v>30087</v>
+      </c>
+      <c r="B434" s="2">
+        <v>0</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434" s="2">
+        <v>3</v>
+      </c>
+      <c r="E434" s="1">
+        <v>2</v>
+      </c>
+      <c r="F434" s="1">
+        <v>28</v>
+      </c>
+      <c r="G434" s="1">
+        <v>59</v>
+      </c>
+      <c r="X434" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC434">
+        <v>3</v>
+      </c>
+      <c r="AR434" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS434" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AT434" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="AU434" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AV434" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="AW434" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AX434" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AY434" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AZ434" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA434" s="8" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="435" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A435" s="2">
+        <v>30087</v>
+      </c>
+      <c r="B435" s="2">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+      <c r="D435" s="2">
+        <v>3</v>
+      </c>
+      <c r="E435" s="1">
+        <v>3</v>
+      </c>
+      <c r="F435" s="1">
+        <v>28</v>
+      </c>
+      <c r="G435" s="1">
+        <v>62</v>
+      </c>
+      <c r="X435" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC435">
+        <v>4</v>
+      </c>
+      <c r="AR435" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS435" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AT435" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="AU435" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AV435" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="AW435" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AX435" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AY435" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AZ435" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA435" s="8" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="436" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A436" s="2">
+        <v>30087</v>
+      </c>
+      <c r="B436" s="2">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+      <c r="D436" s="2">
+        <v>3</v>
+      </c>
+      <c r="E436" s="1">
+        <v>4</v>
+      </c>
+      <c r="F436" s="1">
+        <v>28</v>
+      </c>
+      <c r="G436" s="1">
+        <v>65</v>
+      </c>
+      <c r="X436" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC436">
+        <v>4</v>
+      </c>
+      <c r="AR436" s="1">
+        <v>40</v>
+      </c>
+      <c r="AS436" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AT436" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="AU436" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AV436" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="AW436" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AX436" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AY436" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AZ436" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA436" s="8" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="437" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A437" s="2">
+        <v>30088</v>
+      </c>
+      <c r="B437" s="2">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>3</v>
+      </c>
+      <c r="D437" s="2">
+        <v>3</v>
+      </c>
+      <c r="E437" s="1">
+        <v>0</v>
+      </c>
+      <c r="I437" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K437" s="1">
+        <v>13</v>
+      </c>
+      <c r="X437" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y437">
+        <v>2</v>
+      </c>
+      <c r="AR437" s="1">
+        <v>30</v>
+      </c>
+      <c r="AS437" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AT437" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="AU437" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="AV437" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AW437" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AX437" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AY437" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ437" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA437" s="8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="438" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A438" s="2">
+        <v>30088</v>
+      </c>
+      <c r="B438" s="2">
+        <v>0</v>
+      </c>
+      <c r="C438">
+        <v>3</v>
+      </c>
+      <c r="D438" s="2">
+        <v>3</v>
+      </c>
+      <c r="E438" s="1">
+        <v>1</v>
+      </c>
+      <c r="I438" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K438" s="1">
+        <v>13</v>
+      </c>
+      <c r="X438" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y438">
+        <v>2</v>
+      </c>
+      <c r="AR438" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS438" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AT438" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AU438" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="AV438" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AW438" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AX438" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AY438" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AZ438" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA438" s="8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="439" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A439" s="2">
+        <v>30088</v>
+      </c>
+      <c r="B439" s="2">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>3</v>
+      </c>
+      <c r="D439" s="2">
+        <v>3</v>
+      </c>
+      <c r="E439" s="1">
+        <v>2</v>
+      </c>
+      <c r="I439" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K439" s="1">
+        <v>13</v>
+      </c>
+      <c r="X439" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y439">
+        <v>3</v>
+      </c>
+      <c r="AR439" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS439" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AT439" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AU439" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AV439" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AW439" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AX439" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AY439" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AZ439" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA439" s="8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="440" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A440" s="2">
+        <v>30088</v>
+      </c>
+      <c r="B440" s="2">
+        <v>0</v>
+      </c>
+      <c r="C440">
+        <v>3</v>
+      </c>
+      <c r="D440" s="2">
+        <v>3</v>
+      </c>
+      <c r="E440" s="1">
+        <v>3</v>
+      </c>
+      <c r="I440" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K440" s="1">
+        <v>17</v>
+      </c>
+      <c r="X440" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y440">
+        <v>3</v>
+      </c>
+      <c r="AR440" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS440" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AT440" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AU440" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AV440" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AW440" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AX440" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AY440" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AZ440" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA440" s="8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="441" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A441" s="2">
+        <v>30088</v>
+      </c>
+      <c r="B441" s="2">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>3</v>
+      </c>
+      <c r="D441" s="2">
+        <v>3</v>
+      </c>
+      <c r="E441" s="1">
+        <v>4</v>
+      </c>
+      <c r="I441" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K441" s="1">
+        <v>17</v>
+      </c>
+      <c r="X441" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y441">
+        <v>3</v>
+      </c>
+      <c r="AR441" s="1">
+        <v>40</v>
+      </c>
+      <c r="AS441" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AT441" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AU441" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AV441" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AW441" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AX441" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AY441" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AZ441" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA441" s="8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="442" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A442" s="2">
+        <v>30089</v>
+      </c>
+      <c r="B442" s="2">
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <v>2</v>
+      </c>
+      <c r="D442" s="2">
+        <v>3</v>
+      </c>
+      <c r="E442" s="1">
+        <v>0</v>
+      </c>
+      <c r="I442" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O442">
+        <v>9</v>
+      </c>
+      <c r="AH442">
+        <v>2</v>
+      </c>
+      <c r="AR442" s="1">
+        <v>30</v>
+      </c>
+      <c r="AS442" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AT442" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="AU442" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="AV442" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AW442" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AX442" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AY442" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ442" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="BA442" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="443" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A443" s="2">
+        <v>30089</v>
+      </c>
+      <c r="B443" s="2">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>2</v>
+      </c>
+      <c r="D443" s="2">
+        <v>3</v>
+      </c>
+      <c r="E443" s="1">
+        <v>1</v>
+      </c>
+      <c r="I443" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O443">
+        <v>9</v>
+      </c>
+      <c r="AH443">
+        <v>2</v>
+      </c>
+      <c r="AR443" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS443" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AT443" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AU443" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="AV443" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AW443" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AX443" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AY443" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AZ443" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="BA443" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="444" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A444" s="2">
+        <v>30089</v>
+      </c>
+      <c r="B444" s="2">
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <v>2</v>
+      </c>
+      <c r="D444" s="2">
+        <v>3</v>
+      </c>
+      <c r="E444" s="1">
+        <v>2</v>
+      </c>
+      <c r="I444" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O444">
+        <v>9</v>
+      </c>
+      <c r="AH444">
+        <v>2</v>
+      </c>
+      <c r="AR444" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS444" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AT444" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AU444" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV444" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AW444" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AX444" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AY444" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AZ444" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="BA444" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="445" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A445" s="2">
+        <v>30089</v>
+      </c>
+      <c r="B445" s="2">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>2</v>
+      </c>
+      <c r="D445" s="2">
+        <v>3</v>
+      </c>
+      <c r="E445" s="1">
+        <v>3</v>
+      </c>
+      <c r="I445" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="O445">
+        <v>12</v>
+      </c>
+      <c r="AH445">
+        <v>2</v>
+      </c>
+      <c r="AR445" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS445" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AT445" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AU445" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV445" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AW445" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AX445" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AY445" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AZ445" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="BA445" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="446" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A446" s="2">
+        <v>30089</v>
+      </c>
+      <c r="B446" s="2">
+        <v>0</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+      <c r="D446" s="2">
+        <v>3</v>
+      </c>
+      <c r="E446" s="1">
+        <v>4</v>
+      </c>
+      <c r="I446" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O446">
+        <v>12</v>
+      </c>
+      <c r="AH446">
+        <v>3</v>
+      </c>
+      <c r="AR446" s="1">
+        <v>40</v>
+      </c>
+      <c r="AS446" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AT446" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AU446" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV446" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="AW446" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AX446" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AY446" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AZ446" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="BA446" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="447" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A447" s="2">
+        <v>30090</v>
+      </c>
+      <c r="B447" s="2">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>2</v>
+      </c>
+      <c r="D447">
+        <v>3</v>
+      </c>
+      <c r="E447" s="1">
+        <v>0</v>
+      </c>
+      <c r="G447" s="1">
+        <v>52</v>
+      </c>
+      <c r="O447">
+        <v>12</v>
+      </c>
+      <c r="Y447">
+        <v>2</v>
+      </c>
+      <c r="AQ447">
+        <v>17</v>
+      </c>
+      <c r="AR447" s="1">
+        <v>30</v>
+      </c>
+      <c r="AS447" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AT447" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="AU447" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AV447" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW447" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="AX447" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AY447" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AZ447" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA447" s="8" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="448" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A448" s="2">
+        <v>30090</v>
+      </c>
+      <c r="B448" s="2">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>2</v>
+      </c>
+      <c r="D448">
+        <v>3</v>
+      </c>
+      <c r="E448" s="1">
+        <v>1</v>
+      </c>
+      <c r="G448" s="1">
+        <v>55</v>
+      </c>
+      <c r="O448">
+        <v>12</v>
+      </c>
+      <c r="Y448">
+        <v>2</v>
+      </c>
+      <c r="AQ448">
+        <v>17</v>
+      </c>
+      <c r="AR448" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS448" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AT448" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="AU448" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AV448" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW448" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="AX448" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AY448" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AZ448" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA448" s="8" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="449" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A449" s="2">
+        <v>30090</v>
+      </c>
+      <c r="B449" s="2">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+      <c r="D449">
+        <v>3</v>
+      </c>
+      <c r="E449" s="1">
+        <v>2</v>
+      </c>
+      <c r="G449" s="1">
+        <v>59</v>
+      </c>
+      <c r="O449">
+        <v>17</v>
+      </c>
+      <c r="Y449">
+        <v>2</v>
+      </c>
+      <c r="AQ449">
+        <v>17</v>
+      </c>
+      <c r="AR449" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS449" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AT449" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="AU449" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AV449" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW449" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="AX449" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AY449" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AZ449" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA449" s="8" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="450" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A450" s="2">
+        <v>30090</v>
+      </c>
+      <c r="B450" s="2">
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <v>2</v>
+      </c>
+      <c r="D450">
+        <v>3</v>
+      </c>
+      <c r="E450" s="1">
+        <v>3</v>
+      </c>
+      <c r="G450" s="1">
+        <v>62</v>
+      </c>
+      <c r="O450">
+        <v>17</v>
+      </c>
+      <c r="Y450">
+        <v>2</v>
+      </c>
+      <c r="AQ450">
+        <v>22</v>
+      </c>
+      <c r="AR450" s="1">
+        <v>35</v>
+      </c>
+      <c r="AS450" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AT450" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="AU450" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AV450" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AW450" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="AX450" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AY450" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AZ450" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA450" s="8" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="451" spans="1:53" ht="15.75" customHeight="1">
+      <c r="A451" s="2">
+        <v>30090</v>
+      </c>
+      <c r="B451" s="2">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+      <c r="D451">
+        <v>3</v>
+      </c>
+      <c r="E451" s="1">
+        <v>4</v>
+      </c>
+      <c r="G451" s="1">
+        <v>65</v>
+      </c>
+      <c r="O451">
+        <v>17</v>
+      </c>
+      <c r="Y451">
+        <v>3</v>
+      </c>
+      <c r="AQ451">
+        <v>22</v>
+      </c>
+      <c r="AR451" s="1">
+        <v>40</v>
+      </c>
+      <c r="AS451" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AT451" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="AU451" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AV451" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AW451" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AX451" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AY451" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="AZ451" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="BA451" s="8" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="452" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="453" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="454" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="455" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="456" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="457" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="458" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="459" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="460" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="461" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="462" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="463" spans="1:53" ht="15.75" customHeight="1"/>
+    <row r="464" spans="1:53" ht="15.75" customHeight="1"/>
     <row r="465" ht="15.75" customHeight="1"/>
     <row r="466" ht="15.75" customHeight="1"/>
     <row r="467" ht="15.75" customHeight="1"/>
@@ -58335,4 +60771,800 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B261CE94-C405-40F3-9626-45FA72518672}">
+  <dimension ref="A1:AQ80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D40" sqref="D39:D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="36.875" customWidth="1"/>
+    <col min="3" max="3" width="37.125" customWidth="1"/>
+    <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="A8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="A9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="B12" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="B13" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="B14" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="B15" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" t="s">
+        <v>992</v>
+      </c>
+      <c r="C67" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>